--- a/test_data/资管接口.xlsx
+++ b/test_data/资管接口.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
   <si>
     <t>案例编号</t>
   </si>
@@ -77,7 +77,7 @@
     <t>执行成功</t>
   </si>
   <si>
-    <t>{'data': {'telephone': '18519030808', 'modifier': None, 'companyId': '26', 'firstLoginFlag': False, 'version': None, 'userName': '万事达', 'createdTime': None, 'orgId': '201', 'companyName': '万事达有限公司', 'curPositionId': '251', 'companyTypeList': [2, 8], 'commuterStatus': 1, 'roles': [{'permissions': [{'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'organization_edit', 'name': '编辑组织结构'}], 'code': 'organization_manage', 'name': '基础_组织结构管理'}, {'permissions': [{'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'position_manage', 'name': '管理岗位职能'}, {'code': 'account_manage', 'name': '管理账号'}], 'code': 'position_permission_manage', 'name': '基础_岗位权限管理'}, {'permissions': [{'code': 'company_enter_manage', 'name': '管理公司入驻'}], 'code': 'fund_company_manage', 'name': '基础_资金公司管理'}, {'permissions': [{'code': 'company_enter_manage', 'name': '管理公司入驻'}, {'code': 'workflow_template_manage', 'name': '工作流模板管理'}, {'code': 'workflow_query', 'name': '查询工作流版本'}, {'code': 'workflow_edit', 'name': '编辑工作流版本'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'partner_query', 'name': '合作方查询'}, {'code': 'account_info_query', 'name': '账户信息查询'}, {'code': 'balance_fee_query', 'name': '余额费用查询'}, {'code': 'asset_type_choose_edit', 'name': '资产类型选用编辑'}, {'code': 'partner_edit', 'name': '合作方编辑'}, {'code': 'account_info_edit', 'name': '账户信息编辑'}], 'code': 'asset_company_manage', 'name': '基础_资产公司管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_asset_query_company', 'name': '进件_查询进件(公司)'}, {'permissions': [{'code': 'config_management_query', 'name': '台账配置管理查询'}, {'code': 'config_management_edit', 'name': '台账配置管理编辑'}], 'code': 'base_sb_config_management', 'name': '基础_台账配置管理'}], 'needImgCode': None, 'manageRole': False, 'modifiedTime': None, 'positions': [{'accountId': '223', 'orgId': '201', 'id': '251', 'currentFlag': True, 'positionName': '管理员'}, {'accountId': '223', 'orgId': '202', 'id': '252', 'currentFlag': False, 'positionName': '进件管理岗位'}, {'accountId': '223', 'orgId': '203', 'id': '253', 'currentFlag': False, 'positionName': '运营管理岗位'}, {'accountId': '223', 'orgId': '204', 'id': '254', 'currentFlag': False, 'positionName': '风控管理岗位'}, {'accountId': '223', 'orgId': '205', 'id': '255', 'currentFlag': False, 'positionName': '服务管理岗位'}, {'accountId': '223', 'orgId': '206', 'id': '256', 'currentFlag': False, 'positionName': '财务管理岗位'}, {'accountId': '223', 'orgId': '207', 'id': '257', 'currentFlag': False, 'positionName': '发标管理岗位'}], 'id': '223', 'creator': None, 'account': 'WSDYXGS1_wansd1'}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'account': 'WSDYXGS1_wansd1', 'modifiedTime': None, 'id': '223', 'version': None, 'needImgCode': None, 'roles': [{'code': 'organization_manage', 'name': '基础_组织结构管理', 'permissions': [{'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'organization_edit', 'name': '编辑组织结构'}]}, {'code': 'position_permission_manage', 'name': '基础_岗位权限管理', 'permissions': [{'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'position_manage', 'name': '管理岗位职能'}, {'code': 'account_manage', 'name': '管理账号'}]}, {'code': 'fund_company_manage', 'name': '基础_资金公司管理', 'permissions': [{'code': 'company_enter_manage', 'name': '管理公司入驻'}]}, {'code': 'asset_company_manage', 'name': '基础_资产公司管理', 'permissions': [{'code': 'company_enter_manage', 'name': '管理公司入驻'}, {'code': 'workflow_template_manage', 'name': '工作流模板管理'}, {'code': 'workflow_query', 'name': '查询工作流版本'}, {'code': 'workflow_edit', 'name': '编辑工作流版本'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'partner_query', 'name': '合作方查询'}, {'code': 'account_info_query', 'name': '账户信息查询'}, {'code': 'balance_fee_query', 'name': '余额费用查询'}, {'code': 'asset_type_choose_edit', 'name': '资产类型选用编辑'}, {'code': 'partner_edit', 'name': '合作方编辑'}, {'code': 'account_info_edit', 'name': '账户信息编辑'}]}, {'code': 'entry_asset_query_company', 'name': '进件_查询进件(公司)', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'base_sb_config_management', 'name': '基础_台账配置管理', 'permissions': [{'code': 'config_management_query', 'name': '台账配置管理查询'}, {'code': 'config_management_edit', 'name': '台账配置管理编辑'}]}], 'modifier': None, 'orgId': '201', 'positions': [{'positionName': '管理员', 'accountId': '223', 'id': '251', 'currentFlag': True, 'orgId': '201'}, {'positionName': '进件管理岗位', 'accountId': '223', 'id': '252', 'currentFlag': False, 'orgId': '202'}, {'positionName': '运营管理岗位', 'accountId': '223', 'id': '253', 'currentFlag': False, 'orgId': '203'}, {'positionName': '风控管理岗位', 'accountId': '223', 'id': '254', 'currentFlag': False, 'orgId': '204'}, {'positionName': '服务管理岗位', 'accountId': '223', 'id': '255', 'currentFlag': False, 'orgId': '205'}, {'positionName': '财务管理岗位', 'accountId': '223', 'id': '256', 'currentFlag': False, 'orgId': '206'}, {'positionName': '发标管理岗位', 'accountId': '223', 'id': '257', 'currentFlag': False, 'orgId': '207'}], 'manageRole': False, 'firstLoginFlag': False, 'telephone': '18519030808', 'curPositionId': '251', 'commuterStatus': 1, 'userName': '万事达', 'companyId': '26', 'creator': None, 'companyTypeList': [2, 8], 'companyName': '万事达有限公司'}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_DL_002</t>
@@ -89,7 +89,7 @@
     <t>1adbb3178591fd5bb0c248518f39bf6e</t>
   </si>
   <si>
-    <t>{'data': {'telephone': None, 'modifier': None, 'companyId': None, 'firstLoginFlag': None, 'version': None, 'userName': None, 'createdTime': None, 'orgId': None, 'companyName': None, 'curPositionId': None, 'companyTypeList': [], 'commuterStatus': None, 'roles': [], 'needImgCode': False, 'manageRole': False, 'modifiedTime': None, 'positions': [], 'id': None, 'creator': None, 'account': None}, 'message': '用户校验失败', 'code': 'PMS_0003', 'success': False}</t>
+    <t>{'success': False, 'code': 'PMS_0003', 'data': {'createdTime': None, 'account': None, 'modifiedTime': None, 'id': None, 'version': None, 'needImgCode': False, 'roles': [], 'modifier': None, 'orgId': None, 'positions': [], 'manageRole': False, 'firstLoginFlag': None, 'telephone': None, 'curPositionId': None, 'commuterStatus': None, 'userName': None, 'companyId': None, 'creator': None, 'companyTypeList': [], 'companyName': None}, 'message': '用户校验失败'}</t>
   </si>
   <si>
     <t>ZGXT_DL_003</t>
@@ -101,7 +101,7 @@
     <t>18519031808</t>
   </si>
   <si>
-    <t>{'data': None, 'message': '登录服务错误', 'code': 'PMS_0007', 'success': False}</t>
+    <t>{'success': False, 'code': 'PMS_0007', 'data': None, 'message': '登录服务错误'}</t>
   </si>
   <si>
     <t>ZGXT_DL_004</t>
@@ -113,15 +113,6 @@
     <t>1adbb3178591fd5bb0c248518f39bf6f</t>
   </si>
   <si>
-    <t>执行失败</t>
-  </si>
-  <si>
-    <t>{'code': 'CMN_1000', 'message': '用户未登录或已过期', 'success': False}</t>
-  </si>
-  <si>
-    <t>{'success': False, 'message': '用户未登录或已过期', 'code': 'CMN_1000'}</t>
-  </si>
-  <si>
     <t>部门</t>
   </si>
   <si>
@@ -137,7 +128,7 @@
     <t>营业部</t>
   </si>
   <si>
-    <t>{'data': {'telephone': '18519030808', 'modifier': None, 'companyId': '26', 'firstLoginFlag': None, 'version': None, 'userName': '万事达', 'createdTime': None, 'orgId': '201', 'companyName': '万事达有限公司', 'curPositionId': '252', 'companyTypeList': [2, 8], 'commuterStatus': 1, 'roles': [{'permissions': [{'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'position_manage', 'name': '管理岗位职能'}, {'code': 'account_manage', 'name': '管理账号'}], 'code': 'personnel_manage', 'name': '基础_部门人事管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_create', 'name': '创建进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'finance_product_query', 'name': '查询金融产品'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'asset_type_query', 'name': '查询资产类型'}, {'code': 'finance_product_query', 'name': '查询金融产品'}], 'code': 'entry_customer_business', 'name': '进件_客户业务进件'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}, {'code': 'consumer_repayment_query', 'name': '查询客户还款信息'}, {'code': 'consumer_repayment_remind_query', 'name': '查询客户提醒记录'}], 'code': 'entry_newly_increased_entry_manage', 'name': '进件_新增进件管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'application_supplement', 'name': '申请后补'}], 'code': 'entry_business_entry_perfect', 'name': '进件_业务进件完善'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_continued_loan_enry_manage', 'name': '进件_续贷进件管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'traffic_infomation_query', 'name': '查看车况信息'}, {'code': 'traffic_auxiliary_evaluation_query', 'name': '查看辅助评估'}, {'code': 'traffic_evaluation_history_query', 'name': '查看车辆历史评估记录'}], 'code': 'vehicle_price_evaluation', 'name': '车辆_车辆价格评估'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}], 'code': 'vehicle_gps_stevedoring', 'name': '车辆_GPS装卸'}, {'permissions': [{'code': 'guarantee_additional', 'name': '进件附加担保'}, {'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'guarantee_manage_query', 'name': '查询担保信息'}, {'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'guarantee_record_query', 'name': '查询担保记录'}], 'code': 'entry_add_guarantee', 'name': '进件_进件附加担保'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}], 'code': 'vehicle_information_collect', 'name': '车辆_车辆信息采集'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'risk_report_query', 'name': '查看风控报告'}, {'code': 'risk_infomcation_query', 'name': '查看风控对接信息'}], 'code': 'rm_risk_manage_visit', 'name': '风控_风控上门'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}], 'code': 'vehicle_out_in_storage', 'name': '车辆_出入库'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_create', 'name': '创建进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'finance_product_query', 'name': '查询金融产品'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'asset_type_query', 'name': '查询资产类型'}, {'code': 'finance_product_query', 'name': '查询金融产品'}], 'code': 'entry_change_finance_product', 'name': '进件_更换金融产品'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_create', 'name': '创建进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'finance_product_query', 'name': '查询金融产品'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'asset_type_query', 'name': '查询资产类型'}, {'code': 'finance_product_query', 'name': '查询金融产品'}], 'code': 'entry_renew_loan', 'name': '进件_申请续贷'}, {'permissions': [{'code': 'entry_cancel', 'name': '进件_撤销进件'}, {'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_cancel', 'name': '进件_撤销进件'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_settle', 'name': '申请结清'}, {'code': 'system_parameter_query', 'name': '系统参数查询'}, {'code': 'consumer_repayment_query', 'name': '查询客户还款信息'}, {'code': 'consumer_repayment_remind_query', 'name': '查询客户提醒记录'}], 'code': 'entry_settle_application', 'name': '进件_申请结清'}, {'permissions': [], 'code': 'entry_without_scan', 'name': '进件_跳过扫描任务'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_asset_query_department', 'name': '进件_查询进件(部门)'}], 'needImgCode': None, 'manageRole': True, 'modifiedTime': None, 'positions': [{'accountId': '223', 'orgId': '201', 'id': '251', 'currentFlag': False, 'positionName': '管理员'}, {'accountId': '223', 'orgId': '202', 'id': '252', 'currentFlag': True, 'positionName': '进件管理岗位'}, {'accountId': '223', 'orgId': '203', 'id': '253', 'currentFlag': False, 'positionName': '运营管理岗位'}, {'accountId': '223', 'orgId': '204', 'id': '254', 'currentFlag': False, 'positionName': '风控管理岗位'}, {'accountId': '223', 'orgId': '205', 'id': '255', 'currentFlag': False, 'positionName': '服务管理岗位'}, {'accountId': '223', 'orgId': '206', 'id': '256', 'currentFlag': False, 'positionName': '财务管理岗位'}, {'accountId': '223', 'orgId': '207', 'id': '257', 'currentFlag': False, 'positionName': '发标管理岗位'}], 'id': '223', 'creator': None, 'account': 'WSDYXGS1_wansd1'}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'account': 'WSDYXGS1_wansd1', 'modifiedTime': None, 'id': '223', 'version': None, 'needImgCode': None, 'roles': [{'code': 'personnel_manage', 'name': '基础_部门人事管理', 'permissions': [{'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'position_manage', 'name': '管理岗位职能'}, {'code': 'account_manage', 'name': '管理账号'}]}, {'code': 'entry_customer_business', 'name': '进件_客户业务进件', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_create', 'name': '创建进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'finance_product_query', 'name': '查询金融产品'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'asset_type_query', 'name': '查询资产类型'}, {'code': 'finance_product_query', 'name': '查询金融产品'}]}, {'code': 'entry_newly_increased_entry_manage', 'name': '进件_新增进件管理', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}, {'code': 'consumer_repayment_query', 'name': '查询客户还款信息'}, {'code': 'consumer_repayment_remind_query', 'name': '查询客户提醒记录'}]}, {'code': 'entry_business_entry_perfect', 'name': '进件_业务进件完善', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'application_supplement', 'name': '申请后补'}]}, {'code': 'entry_continued_loan_enry_manage', 'name': '进件_续贷进件管理', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'vehicle_price_evaluation', 'name': '车辆_车辆价格评估', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'traffic_infomation_query', 'name': '查看车况信息'}, {'code': 'traffic_auxiliary_evaluation_query', 'name': '查看辅助评估'}, {'code': 'traffic_evaluation_history_query', 'name': '查看车辆历史评估记录'}]}, {'code': 'vehicle_gps_stevedoring', 'name': '车辆_GPS装卸', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}]}, {'code': 'entry_add_guarantee', 'name': '进件_进件附加担保', 'permissions': [{'code': 'guarantee_additional', 'name': '进件附加担保'}, {'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'guarantee_manage_query', 'name': '查询担保信息'}, {'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'guarantee_record_query', 'name': '查询担保记录'}]}, {'code': 'vehicle_information_collect', 'name': '车辆_车辆信息采集', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}]}, {'code': 'rm_risk_manage_visit', 'name': '风控_风控上门', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'risk_report_query', 'name': '查看风控报告'}, {'code': 'risk_infomcation_query', 'name': '查看风控对接信息'}]}, {'code': 'vehicle_out_in_storage', 'name': '车辆_出入库', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}]}, {'code': 'entry_change_finance_product', 'name': '进件_更换金融产品', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_create', 'name': '创建进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'finance_product_query', 'name': '查询金融产品'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'asset_type_query', 'name': '查询资产类型'}, {'code': 'finance_product_query', 'name': '查询金融产品'}]}, {'code': 'entry_renew_loan', 'name': '进件_申请续贷', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_create', 'name': '创建进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'finance_product_query', 'name': '查询金融产品'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'asset_type_query', 'name': '查询资产类型'}, {'code': 'finance_product_query', 'name': '查询金融产品'}]}, {'code': 'entry_cancel', 'name': '进件_撤销进件', 'permissions': [{'code': 'entry_cancel', 'name': '进件_撤销进件'}, {'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'entry_settle_application', 'name': '进件_申请结清', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_settle', 'name': '申请结清'}, {'code': 'system_parameter_query', 'name': '系统参数查询'}, {'code': 'consumer_repayment_query', 'name': '查询客户还款信息'}, {'code': 'consumer_repayment_remind_query', 'name': '查询客户提醒记录'}]}, {'code': 'entry_without_scan', 'name': '进件_跳过扫描任务', 'permissions': []}, {'code': 'entry_asset_query_department', 'name': '进件_查询进件(部门)', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}], 'modifier': None, 'orgId': '201', 'positions': [{'positionName': '管理员', 'accountId': '223', 'id': '251', 'currentFlag': False, 'orgId': '201'}, {'positionName': '进件管理岗位', 'accountId': '223', 'id': '252', 'currentFlag': True, 'orgId': '202'}, {'positionName': '运营管理岗位', 'accountId': '223', 'id': '253', 'currentFlag': False, 'orgId': '203'}, {'positionName': '风控管理岗位', 'accountId': '223', 'id': '254', 'currentFlag': False, 'orgId': '204'}, {'positionName': '服务管理岗位', 'accountId': '223', 'id': '255', 'currentFlag': False, 'orgId': '205'}, {'positionName': '财务管理岗位', 'accountId': '223', 'id': '256', 'currentFlag': False, 'orgId': '206'}, {'positionName': '发标管理岗位', 'accountId': '223', 'id': '257', 'currentFlag': False, 'orgId': '207'}], 'manageRole': True, 'firstLoginFlag': None, 'telephone': '18519030808', 'curPositionId': '252', 'commuterStatus': 1, 'userName': '万事达', 'companyId': '26', 'creator': None, 'companyTypeList': [2, 8], 'companyName': '万事达有限公司'}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_QHBM_002</t>
@@ -149,7 +140,7 @@
     <t>运营部</t>
   </si>
   <si>
-    <t>{'data': {'telephone': '18519030808', 'modifier': None, 'companyId': '26', 'firstLoginFlag': None, 'version': None, 'userName': '万事达', 'createdTime': None, 'orgId': '201', 'companyName': '万事达有限公司', 'curPositionId': '253', 'companyTypeList': [2, 8], 'commuterStatus': 1, 'roles': [{'permissions': [{'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'partner_query', 'name': '合作方查询'}, {'code': 'finance_product_query', 'name': '查询金融产品'}, {'code': 'finance_product_edit', 'name': '编辑金融产品'}, {'code': 'finance_item_edit', 'name': '编辑费用项'}, {'code': 'finance_item_query', 'name': '查询费用项'}], 'code': 'finance_product_manage', 'name': '进件_金融产品配置'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_create', 'name': '创建进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'finance_product_query', 'name': '查询金融产品'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'asset_type_query', 'name': '查询资产类型'}, {'code': 'finance_product_query', 'name': '查询金融产品'}], 'code': 'entry_customer_business', 'name': '进件_客户业务进件'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}, {'code': 'consumer_repayment_query', 'name': '查询客户还款信息'}, {'code': 'consumer_repayment_remind_query', 'name': '查询客户提醒记录'}], 'code': 'entry_newly_increased_entry_manage', 'name': '进件_新增进件管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_continued_loan_enry_manage', 'name': '进件_续贷进件管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}], 'code': 'vehicle_gps_stevedoring', 'name': '车辆_GPS装卸'}, {'permissions': [{'code': 'guarantee_additional', 'name': '进件附加担保'}, {'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'guarantee_manage_query', 'name': '查询担保信息'}, {'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'guarantee_record_query', 'name': '查询担保记录'}], 'code': 'entry_add_guarantee', 'name': '进件_进件附加担保'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'risk_report_query', 'name': '查看风控报告'}, {'code': 'risk_infomcation_query', 'name': '查看风控对接信息'}], 'code': 'rm_risk_manage_visit', 'name': '风控_风控上门'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}], 'code': 'vehicle_gps_signal_confirm', 'name': '车辆_GPS信号确认'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_visit_manage', 'name': '进件_上门管理'}, {'permissions': [{'code': 'special_permit_pass', 'name': '进件特批通过'}, {'code': 'special_permit_record_query', 'name': '查询特批记录'}, {'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'organization_query', 'name': '查询组织结构'}], 'code': 'rm_risk_manage_special_permit', 'name': '风控_风控特批'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}], 'code': 'vehicle_gps_manage', 'name': '车辆_GPS管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}], 'code': 'vehicle_stock_manage', 'name': '车辆_车辆库存管理'}, {'permissions': [{'code': 'garage_edit', 'name': '车库编辑'}, {'code': 'garage_query', 'name': '车库查询'}, {'code': 'garage_edit', 'name': '车库编辑'}, {'code': 'organization_query', 'name': '查询组织结构'}], 'code': 'entry_entry_garage_manage', 'name': '进件_进件车库管理'}, {'permissions': [{'code': 'system_parameter_query', 'name': '系统参数查询'}, {'code': 'system_parameter_edit', 'name': '系统参数编辑'}], 'code': 'entry_entry_parameter_manage', 'name': '进件_进件参数配置'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_create', 'name': '创建进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'finance_product_query', 'name': '查询金融产品'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'asset_type_query', 'name': '查询资产类型'}, {'code': 'finance_product_query', 'name': '查询金融产品'}], 'code': 'entry_change_finance_product', 'name': '进件_更换金融产品'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_create', 'name': '创建进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'finance_product_query', 'name': '查询金融产品'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'asset_type_query', 'name': '查询资产类型'}, {'code': 'finance_product_query', 'name': '查询金融产品'}], 'code': 'entry_renew_loan', 'name': '进件_申请续贷'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_asset_output', 'name': '进件_资产输出'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_asset_output_manage', 'name': '进件_资产输出管理'}, {'permissions': [{'code': 'consumer_repayment_query', 'name': '查询客户还款信息'}, {'code': 'consumer_repayment_remind', 'name': '客户还款提醒'}, {'code': 'consumer_repayment_remind_query', 'name': '查询客户提醒记录'}, {'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'consumer_repayment_apply', 'name': '客户还款申请'}], 'code': 'asset_out_consumer_repayment_remind', 'name': '贷后_客户还款提醒'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_settle', 'name': '申请结清'}, {'code': 'system_parameter_query', 'name': '系统参数查询'}, {'code': 'consumer_repayment_query', 'name': '查询客户还款信息'}, {'code': 'consumer_repayment_remind_query', 'name': '查询客户提醒记录'}], 'code': 'entry_settle_application', 'name': '进件_申请结清'}, {'permissions': [], 'code': 'entry_without_scan', 'name': '进件_跳过扫描任务'}, {'permissions': [{'code': 'risk_serach_asset', 'name': '查询进件'}, {'code': 'risk_asset_output', 'name': '进件风控信息输出'}, {'code': 'confirm_risk_result', 'name': '确认资金方风控结果'}], 'code': 'entry_asset_risk_output', 'name': '进件_风控输出'}, {'permissions': [{'code': 'risk_serach_asset', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}], 'code': 'entry_asset_risk_output_manage', 'name': '进件_风控输出管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_asset_query_department', 'name': '进件_查询进件(部门)'}], 'needImgCode': None, 'manageRole': True, 'modifiedTime': None, 'positions': [{'accountId': '223', 'orgId': '201', 'id': '251', 'currentFlag': False, 'positionName': '管理员'}, {'accountId': '223', 'orgId': '202', 'id': '252', 'currentFlag': False, 'positionName': '进件管理岗位'}, {'accountId': '223', 'orgId': '203', 'id': '253', 'currentFlag': True, 'positionName': '运营管理岗位'}, {'accountId': '223', 'orgId': '204', 'id': '254', 'currentFlag': False, 'positionName': '风控管理岗位'}, {'accountId': '223', 'orgId': '205', 'id': '255', 'currentFlag': False, 'positionName': '服务管理岗位'}, {'accountId': '223', 'orgId': '206', 'id': '256', 'currentFlag': False, 'positionName': '财务管理岗位'}, {'accountId': '223', 'orgId': '207', 'id': '257', 'currentFlag': False, 'positionName': '发标管理岗位'}], 'id': '223', 'creator': None, 'account': 'WSDYXGS1_wansd1'}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'account': 'WSDYXGS1_wansd1', 'modifiedTime': None, 'id': '223', 'version': None, 'needImgCode': None, 'roles': [{'code': 'finance_product_manage', 'name': '进件_金融产品配置', 'permissions': [{'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'partner_query', 'name': '合作方查询'}, {'code': 'finance_product_query', 'name': '查询金融产品'}, {'code': 'finance_product_edit', 'name': '编辑金融产品'}, {'code': 'finance_item_edit', 'name': '编辑费用项'}, {'code': 'finance_item_query', 'name': '查询费用项'}]}, {'code': 'entry_customer_business', 'name': '进件_客户业务进件', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_create', 'name': '创建进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'finance_product_query', 'name': '查询金融产品'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'asset_type_query', 'name': '查询资产类型'}, {'code': 'finance_product_query', 'name': '查询金融产品'}]}, {'code': 'entry_newly_increased_entry_manage', 'name': '进件_新增进件管理', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}, {'code': 'consumer_repayment_query', 'name': '查询客户还款信息'}, {'code': 'consumer_repayment_remind_query', 'name': '查询客户提醒记录'}]}, {'code': 'entry_continued_loan_enry_manage', 'name': '进件_续贷进件管理', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'vehicle_gps_stevedoring', 'name': '车辆_GPS装卸', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}]}, {'code': 'entry_add_guarantee', 'name': '进件_进件附加担保', 'permissions': [{'code': 'guarantee_additional', 'name': '进件附加担保'}, {'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'guarantee_manage_query', 'name': '查询担保信息'}, {'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'guarantee_record_query', 'name': '查询担保记录'}]}, {'code': 'rm_risk_manage_visit', 'name': '风控_风控上门', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'risk_report_query', 'name': '查看风控报告'}, {'code': 'risk_infomcation_query', 'name': '查看风控对接信息'}]}, {'code': 'vehicle_gps_signal_confirm', 'name': '车辆_GPS信号确认', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}]}, {'code': 'entry_visit_manage', 'name': '进件_上门管理', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'rm_risk_manage_special_permit', 'name': '风控_风控特批', 'permissions': [{'code': 'special_permit_pass', 'name': '进件特批通过'}, {'code': 'special_permit_record_query', 'name': '查询特批记录'}, {'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'organization_query', 'name': '查询组织结构'}]}, {'code': 'vehicle_gps_manage', 'name': '车辆_GPS管理', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}]}, {'code': 'vehicle_stock_manage', 'name': '车辆_车辆库存管理', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}]}, {'code': 'entry_entry_garage_manage', 'name': '进件_进件车库管理', 'permissions': [{'code': 'garage_edit', 'name': '车库编辑'}, {'code': 'garage_query', 'name': '车库查询'}, {'code': 'garage_edit', 'name': '车库编辑'}, {'code': 'organization_query', 'name': '查询组织结构'}]}, {'code': 'entry_entry_parameter_manage', 'name': '进件_进件参数配置', 'permissions': [{'code': 'system_parameter_query', 'name': '系统参数查询'}, {'code': 'system_parameter_edit', 'name': '系统参数编辑'}]}, {'code': 'entry_change_finance_product', 'name': '进件_更换金融产品', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_create', 'name': '创建进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'finance_product_query', 'name': '查询金融产品'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'asset_type_query', 'name': '查询资产类型'}, {'code': 'finance_product_query', 'name': '查询金融产品'}]}, {'code': 'entry_renew_loan', 'name': '进件_申请续贷', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_create', 'name': '创建进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'finance_product_query', 'name': '查询金融产品'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'asset_type_query', 'name': '查询资产类型'}, {'code': 'finance_product_query', 'name': '查询金融产品'}]}, {'code': 'entry_asset_output', 'name': '进件_资产输出', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'entry_asset_output_manage', 'name': '进件_资产输出管理', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'asset_out_consumer_repayment_remind', 'name': '贷后_客户还款提醒', 'permissions': [{'code': 'consumer_repayment_query', 'name': '查询客户还款信息'}, {'code': 'consumer_repayment_remind', 'name': '客户还款提醒'}, {'code': 'consumer_repayment_remind_query', 'name': '查询客户提醒记录'}, {'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'consumer_repayment_apply', 'name': '客户还款申请'}]}, {'code': 'entry_settle_application', 'name': '进件_申请结清', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_settle', 'name': '申请结清'}, {'code': 'system_parameter_query', 'name': '系统参数查询'}, {'code': 'consumer_repayment_query', 'name': '查询客户还款信息'}, {'code': 'consumer_repayment_remind_query', 'name': '查询客户提醒记录'}]}, {'code': 'entry_without_scan', 'name': '进件_跳过扫描任务', 'permissions': []}, {'code': 'entry_asset_risk_output', 'name': '进件_风控输出', 'permissions': [{'code': 'risk_serach_asset', 'name': '查询进件'}, {'code': 'risk_asset_output', 'name': '进件风控信息输出'}, {'code': 'confirm_risk_result', 'name': '确认资金方风控结果'}]}, {'code': 'entry_asset_risk_output_manage', 'name': '进件_风控输出管理', 'permissions': [{'code': 'risk_serach_asset', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}]}, {'code': 'entry_asset_query_department', 'name': '进件_查询进件(部门)', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}], 'modifier': None, 'orgId': '201', 'positions': [{'positionName': '管理员', 'accountId': '223', 'id': '251', 'currentFlag': False, 'orgId': '201'}, {'positionName': '进件管理岗位', 'accountId': '223', 'id': '252', 'currentFlag': False, 'orgId': '202'}, {'positionName': '运营管理岗位', 'accountId': '223', 'id': '253', 'currentFlag': True, 'orgId': '203'}, {'positionName': '风控管理岗位', 'accountId': '223', 'id': '254', 'currentFlag': False, 'orgId': '204'}, {'positionName': '服务管理岗位', 'accountId': '223', 'id': '255', 'currentFlag': False, 'orgId': '205'}, {'positionName': '财务管理岗位', 'accountId': '223', 'id': '256', 'currentFlag': False, 'orgId': '206'}, {'positionName': '发标管理岗位', 'accountId': '223', 'id': '257', 'currentFlag': False, 'orgId': '207'}], 'manageRole': True, 'firstLoginFlag': None, 'telephone': '18519030808', 'curPositionId': '253', 'commuterStatus': 1, 'userName': '万事达', 'companyId': '26', 'creator': None, 'companyTypeList': [2, 8], 'companyName': '万事达有限公司'}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_QHBM_003</t>
@@ -161,7 +152,7 @@
     <t>财务部</t>
   </si>
   <si>
-    <t>{'data': {'telephone': '18519030808', 'modifier': None, 'companyId': '26', 'firstLoginFlag': None, 'version': None, 'userName': '万事达', 'createdTime': None, 'orgId': '201', 'companyName': '万事达有限公司', 'curPositionId': '256', 'companyTypeList': [2, 8], 'commuterStatus': 1, 'roles': [{'permissions': [{'code': 'confirm_settle_payment', 'name': '确认结清收款'}, {'code': 'confirm_settle_asset', 'name': '确认资产结清'}, {'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'financial_settlement_collection', 'name': '财务_结清收款'}, {'permissions': [{'code': 'consumer_repayment_query', 'name': '查询客户还款信息'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}, {'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'fin_financial_settlement_manage', 'name': '财务_财务管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'financial_asset_settlement', 'name': '财务_资产结清'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'fin_loan_advances', 'name': '财务_放款垫款'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'confirm_return_deposit', 'name': '确认退还押金'}], 'code': 'fin_return_deposit', 'name': '财务_押金退还'}, {'permissions': [{'code': 'confirm_asset_received_payments', 'name': '确认资产回款'}, {'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'fin_asset_received_payments', 'name': '财务_确认回款'}, {'permissions': [{'code': 'consumer_repayment_query', 'name': '查询客户还款信息'}, {'code': 'consumer_repayment_confirm', 'name': '确认还款收款'}, {'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'fund_interface_query', 'name': '查询接口'}, {'code': 'fund_interface_query', 'name': '查询接口'}, {'code': 'consumer_repayment_apply_query', 'name': '查看还款申请'}, {'code': 'consumer_repayment_remind_query', 'name': '查询客户提醒记录'}], 'code': 'financial_consumer_repayment_manage', 'name': '财务_客户还款管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'fund_repayment_advance', 'name': '进行还款垫款'}], 'code': 'fin_fund_repayment_manage', 'name': '财务_资金方还款管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'publish_settle', 'name': '处置结清'}, {'code': 'consumer_repayment_query', 'name': '查询客户还款信息'}], 'code': 'asset_out_overdue_manage', 'name': '贷后_逾期处置管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'confirm_return_guarantee', 'name': '确认退还保证金'}], 'code': 'fin_return_guarantee', 'name': '财务_保证金退还'}, {'permissions': [{'code': 'search_account_flow', 'name': '查询流水账目信息'}], 'code': 'fin_account_flow_manage', 'name': '财务_流水账目管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_asset_query_department', 'name': '进件_查询进件(部门)'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_asset_query_company', 'name': '进件_查询进件(公司)'}], 'needImgCode': None, 'manageRole': True, 'modifiedTime': None, 'positions': [{'accountId': '223', 'orgId': '201', 'id': '251', 'currentFlag': False, 'positionName': '管理员'}, {'accountId': '223', 'orgId': '202', 'id': '252', 'currentFlag': False, 'positionName': '进件管理岗位'}, {'accountId': '223', 'orgId': '203', 'id': '253', 'currentFlag': False, 'positionName': '运营管理岗位'}, {'accountId': '223', 'orgId': '204', 'id': '254', 'currentFlag': False, 'positionName': '风控管理岗位'}, {'accountId': '223', 'orgId': '205', 'id': '255', 'currentFlag': False, 'positionName': '服务管理岗位'}, {'accountId': '223', 'orgId': '206', 'id': '256', 'currentFlag': True, 'positionName': '财务管理岗位'}, {'accountId': '223', 'orgId': '207', 'id': '257', 'currentFlag': False, 'positionName': '发标管理岗位'}], 'id': '223', 'creator': None, 'account': 'WSDYXGS1_wansd1'}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'account': 'WSDYXGS1_wansd1', 'modifiedTime': None, 'id': '223', 'version': None, 'needImgCode': None, 'roles': [{'code': 'financial_settlement_collection', 'name': '财务_结清收款', 'permissions': [{'code': 'confirm_settle_payment', 'name': '确认结清收款'}, {'code': 'confirm_settle_asset', 'name': '确认资产结清'}, {'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'fin_financial_settlement_manage', 'name': '财务_财务管理', 'permissions': [{'code': 'consumer_repayment_query', 'name': '查询客户还款信息'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}, {'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'financial_asset_settlement', 'name': '财务_资产结清', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'fin_loan_advances', 'name': '财务_放款垫款', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'fin_return_deposit', 'name': '财务_押金退还', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'confirm_return_deposit', 'name': '确认退还押金'}]}, {'code': 'fin_asset_received_payments', 'name': '财务_确认回款', 'permissions': [{'code': 'confirm_asset_received_payments', 'name': '确认资产回款'}, {'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'financial_consumer_repayment_manage', 'name': '财务_客户还款管理', 'permissions': [{'code': 'consumer_repayment_query', 'name': '查询客户还款信息'}, {'code': 'consumer_repayment_confirm', 'name': '确认还款收款'}, {'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'fund_interface_query', 'name': '查询接口'}, {'code': 'fund_interface_query', 'name': '查询接口'}, {'code': 'consumer_repayment_apply_query', 'name': '查看还款申请'}, {'code': 'consumer_repayment_remind_query', 'name': '查询客户提醒记录'}]}, {'code': 'fin_fund_repayment_manage', 'name': '财务_资金方还款管理', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'fund_repayment_advance', 'name': '进行还款垫款'}]}, {'code': 'asset_out_overdue_manage', 'name': '贷后_逾期处置管理', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'publish_settle', 'name': '处置结清'}, {'code': 'consumer_repayment_query', 'name': '查询客户还款信息'}]}, {'code': 'fin_return_guarantee', 'name': '财务_保证金退还', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'confirm_return_guarantee', 'name': '确认退还保证金'}]}, {'code': 'fin_account_flow_manage', 'name': '财务_流水账目管理', 'permissions': [{'code': 'search_account_flow', 'name': '查询流水账目信息'}]}, {'code': 'entry_asset_query_department', 'name': '进件_查询进件(部门)', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'entry_asset_query_company', 'name': '进件_查询进件(公司)', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}], 'modifier': None, 'orgId': '201', 'positions': [{'positionName': '管理员', 'accountId': '223', 'id': '251', 'currentFlag': False, 'orgId': '201'}, {'positionName': '进件管理岗位', 'accountId': '223', 'id': '252', 'currentFlag': False, 'orgId': '202'}, {'positionName': '运营管理岗位', 'accountId': '223', 'id': '253', 'currentFlag': False, 'orgId': '203'}, {'positionName': '风控管理岗位', 'accountId': '223', 'id': '254', 'currentFlag': False, 'orgId': '204'}, {'positionName': '服务管理岗位', 'accountId': '223', 'id': '255', 'currentFlag': False, 'orgId': '205'}, {'positionName': '财务管理岗位', 'accountId': '223', 'id': '256', 'currentFlag': True, 'orgId': '206'}, {'positionName': '发标管理岗位', 'accountId': '223', 'id': '257', 'currentFlag': False, 'orgId': '207'}], 'manageRole': True, 'firstLoginFlag': None, 'telephone': '18519030808', 'curPositionId': '256', 'commuterStatus': 1, 'userName': '万事达', 'companyId': '26', 'creator': None, 'companyTypeList': [2, 8], 'companyName': '万事达有限公司'}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_QHBM_004</t>
@@ -173,7 +164,7 @@
     <t>风控部</t>
   </si>
   <si>
-    <t>{'data': {'telephone': '18519030808', 'modifier': None, 'companyId': '26', 'firstLoginFlag': None, 'version': None, 'userName': '万事达', 'createdTime': None, 'orgId': '201', 'companyName': '万事达有限公司', 'curPositionId': '254', 'companyTypeList': [2, 8], 'commuterStatus': 1, 'roles': [{'permissions': [{'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'partner_query', 'name': '合作方查询'}, {'code': 'product_risk_management_query', 'name': '金融产品风控查询'}, {'code': 'product_risk_management_edit', 'name': '金融产品风控编辑'}, {'code': 'finance_product_query', 'name': '查询金融产品'}, {'code': 'risk_management_rule_query', 'name': '风控规则管理查询'}], 'code': 'rm_finance_product_risk_manage', 'name': '风控_金融产品风控'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'risk_report_query', 'name': '查看风控报告'}, {'code': 'risk_infomcation_query', 'name': '查看风控对接信息'}], 'code': 'rm_risk_manage_first_trial', 'name': '风控_风控初审'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}, {'code': 'risk_report_query', 'name': '查看风控报告'}, {'code': 'risk_infomcation_query', 'name': '查看风控对接信息'}], 'code': 'rm_risk_manage_entry_manage', 'name': '风控_风控进件管理'}, {'permissions': [{'code': 'guarantee_manage_query', 'name': '查询担保信息'}, {'code': 'guarantee_record_query', 'name': '查询担保记录'}, {'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'guarantee_manage_edit', 'name': '编辑担保信息'}], 'code': 'entry_entry_guarantee_manage', 'name': '进件_进件担保管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'risk_report_query', 'name': '查看风控报告'}, {'code': 'risk_infomcation_query', 'name': '查看风控对接信息'}], 'code': 'rm_risk_manage_electric_trial', 'name': '风控_风控电审'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'risk_infomcation_query', 'name': '查看风控对接信息'}], 'code': 'rm_risk_manage_review', 'name': '风控_风控复审'}, {'permissions': [{'code': 'special_permit_pass', 'name': '进件特批通过'}, {'code': 'special_permit_record_query', 'name': '查询特批记录'}, {'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'organization_query', 'name': '查询组织结构'}], 'code': 'rm_risk_manage_special_permit', 'name': '风控_风控特批'}, {'permissions': [{'code': 'system_parameter_query', 'name': '系统参数查询'}, {'code': 'system_parameter_edit', 'name': '系统参数编辑'}], 'code': 'rm_risk_parameter_manage', 'name': '风控_风控参数配置'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_asset_query_department', 'name': '进件_查询进件(部门)'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_asset_query_company', 'name': '进件_查询进件(公司)'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'risk_report_query', 'name': '查看风控报告'}, {'code': 'risk_infomcation_query', 'name': '查看风控对接信息'}], 'code': 'rm_risk_audit', 'name': '风控_风控审核'}], 'needImgCode': None, 'manageRole': True, 'modifiedTime': None, 'positions': [{'accountId': '223', 'orgId': '201', 'id': '251', 'currentFlag': False, 'positionName': '管理员'}, {'accountId': '223', 'orgId': '202', 'id': '252', 'currentFlag': False, 'positionName': '进件管理岗位'}, {'accountId': '223', 'orgId': '203', 'id': '253', 'currentFlag': False, 'positionName': '运营管理岗位'}, {'accountId': '223', 'orgId': '204', 'id': '254', 'currentFlag': True, 'positionName': '风控管理岗位'}, {'accountId': '223', 'orgId': '205', 'id': '255', 'currentFlag': False, 'positionName': '服务管理岗位'}, {'accountId': '223', 'orgId': '206', 'id': '256', 'currentFlag': False, 'positionName': '财务管理岗位'}, {'accountId': '223', 'orgId': '207', 'id': '257', 'currentFlag': False, 'positionName': '发标管理岗位'}], 'id': '223', 'creator': None, 'account': 'WSDYXGS1_wansd1'}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'account': 'WSDYXGS1_wansd1', 'modifiedTime': None, 'id': '223', 'version': None, 'needImgCode': None, 'roles': [{'code': 'rm_finance_product_risk_manage', 'name': '风控_金融产品风控', 'permissions': [{'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'partner_query', 'name': '合作方查询'}, {'code': 'product_risk_management_query', 'name': '金融产品风控查询'}, {'code': 'product_risk_management_edit', 'name': '金融产品风控编辑'}, {'code': 'finance_product_query', 'name': '查询金融产品'}, {'code': 'risk_management_rule_query', 'name': '风控规则管理查询'}]}, {'code': 'rm_risk_manage_first_trial', 'name': '风控_风控初审', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'risk_report_query', 'name': '查看风控报告'}, {'code': 'risk_infomcation_query', 'name': '查看风控对接信息'}]}, {'code': 'rm_risk_manage_entry_manage', 'name': '风控_风控进件管理', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}, {'code': 'risk_report_query', 'name': '查看风控报告'}, {'code': 'risk_infomcation_query', 'name': '查看风控对接信息'}]}, {'code': 'entry_entry_guarantee_manage', 'name': '进件_进件担保管理', 'permissions': [{'code': 'guarantee_manage_query', 'name': '查询担保信息'}, {'code': 'guarantee_record_query', 'name': '查询担保记录'}, {'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'guarantee_manage_edit', 'name': '编辑担保信息'}]}, {'code': 'rm_risk_manage_electric_trial', 'name': '风控_风控电审', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'risk_report_query', 'name': '查看风控报告'}, {'code': 'risk_infomcation_query', 'name': '查看风控对接信息'}]}, {'code': 'rm_risk_manage_review', 'name': '风控_风控复审', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'risk_infomcation_query', 'name': '查看风控对接信息'}]}, {'code': 'rm_risk_manage_special_permit', 'name': '风控_风控特批', 'permissions': [{'code': 'special_permit_pass', 'name': '进件特批通过'}, {'code': 'special_permit_record_query', 'name': '查询特批记录'}, {'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'organization_query', 'name': '查询组织结构'}]}, {'code': 'rm_risk_parameter_manage', 'name': '风控_风控参数配置', 'permissions': [{'code': 'system_parameter_query', 'name': '系统参数查询'}, {'code': 'system_parameter_edit', 'name': '系统参数编辑'}]}, {'code': 'entry_asset_query_department', 'name': '进件_查询进件(部门)', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'entry_asset_query_company', 'name': '进件_查询进件(公司)', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'rm_risk_audit', 'name': '风控_风控审核', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'risk_report_query', 'name': '查看风控报告'}, {'code': 'risk_infomcation_query', 'name': '查看风控对接信息'}]}], 'modifier': None, 'orgId': '201', 'positions': [{'positionName': '管理员', 'accountId': '223', 'id': '251', 'currentFlag': False, 'orgId': '201'}, {'positionName': '进件管理岗位', 'accountId': '223', 'id': '252', 'currentFlag': False, 'orgId': '202'}, {'positionName': '运营管理岗位', 'accountId': '223', 'id': '253', 'currentFlag': False, 'orgId': '203'}, {'positionName': '风控管理岗位', 'accountId': '223', 'id': '254', 'currentFlag': True, 'orgId': '204'}, {'positionName': '服务管理岗位', 'accountId': '223', 'id': '255', 'currentFlag': False, 'orgId': '205'}, {'positionName': '财务管理岗位', 'accountId': '223', 'id': '256', 'currentFlag': False, 'orgId': '206'}, {'positionName': '发标管理岗位', 'accountId': '223', 'id': '257', 'currentFlag': False, 'orgId': '207'}], 'manageRole': True, 'firstLoginFlag': None, 'telephone': '18519030808', 'curPositionId': '254', 'commuterStatus': 1, 'userName': '万事达', 'companyId': '26', 'creator': None, 'companyTypeList': [2, 8], 'companyName': '万事达有限公司'}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_QHBM_005</t>
@@ -185,7 +176,7 @@
     <t>服务部</t>
   </si>
   <si>
-    <t>{'data': {'telephone': '18519030808', 'modifier': None, 'companyId': '26', 'firstLoginFlag': None, 'version': None, 'userName': '万事达', 'createdTime': None, 'orgId': '201', 'companyName': '万事达有限公司', 'curPositionId': '255', 'companyTypeList': [2, 8], 'commuterStatus': 1, 'roles': [{'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'traffic_infomation_query', 'name': '查看车况信息'}, {'code': 'traffic_auxiliary_evaluation_query', 'name': '查看辅助评估'}, {'code': 'traffic_evaluation_history_query', 'name': '查看车辆历史评估记录'}], 'code': 'vehicle_price_evaluation', 'name': '车辆_车辆价格评估'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}, {'code': 'traffic_infomation_query', 'name': '查看车况信息'}, {'code': 'traffic_auxiliary_evaluation_query', 'name': '查看辅助评估'}, {'code': 'traffic_evaluation_history_query', 'name': '查看车辆历史评估记录'}], 'code': 'vehicle_evaluation_manage', 'name': '车辆_车辆评估管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'vehicle_transfer_evaluation_audit', 'name': '车辆_转押车辆评估审核'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'vehicle_full_evaluation_audit', 'name': '车辆_全款车辆评估审核'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'guarantee_record_query', 'name': '查询担保记录'}, {'code': 'account_info_query', 'name': '账户信息查询'}, {'code': 'account_info_edit', 'name': '账户信息编辑'}, {'code': 'partner_query', 'name': '合作方查询'}, {'code': 'partner_edit', 'name': '合作方编辑'}], 'code': 'entry_business_entry_audit', 'name': '进件_业务进件审核'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}], 'code': 'entry_audit_entry_manage', 'name': '进件_审核进件管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}], 'code': 'vehicle_stock_manage', 'name': '车辆_车辆库存管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_asset_query_department', 'name': '进件_查询进件(部门)'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_asset_query_company', 'name': '进件_查询进件(公司)'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}], 'code': 'entry_asset_jiedi_manage', 'name': '进件_解抵审核'}], 'needImgCode': None, 'manageRole': True, 'modifiedTime': None, 'positions': [{'accountId': '223', 'orgId': '201', 'id': '251', 'currentFlag': False, 'positionName': '管理员'}, {'accountId': '223', 'orgId': '202', 'id': '252', 'currentFlag': False, 'positionName': '进件管理岗位'}, {'accountId': '223', 'orgId': '203', 'id': '253', 'currentFlag': False, 'positionName': '运营管理岗位'}, {'accountId': '223', 'orgId': '204', 'id': '254', 'currentFlag': False, 'positionName': '风控管理岗位'}, {'accountId': '223', 'orgId': '205', 'id': '255', 'currentFlag': True, 'positionName': '服务管理岗位'}, {'accountId': '223', 'orgId': '206', 'id': '256', 'currentFlag': False, 'positionName': '财务管理岗位'}, {'accountId': '223', 'orgId': '207', 'id': '257', 'currentFlag': False, 'positionName': '发标管理岗位'}], 'id': '223', 'creator': None, 'account': 'WSDYXGS1_wansd1'}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'account': 'WSDYXGS1_wansd1', 'modifiedTime': None, 'id': '223', 'version': None, 'needImgCode': None, 'roles': [{'code': 'vehicle_price_evaluation', 'name': '车辆_车辆价格评估', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'traffic_infomation_query', 'name': '查看车况信息'}, {'code': 'traffic_auxiliary_evaluation_query', 'name': '查看辅助评估'}, {'code': 'traffic_evaluation_history_query', 'name': '查看车辆历史评估记录'}]}, {'code': 'vehicle_evaluation_manage', 'name': '车辆_车辆评估管理', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}, {'code': 'traffic_infomation_query', 'name': '查看车况信息'}, {'code': 'traffic_auxiliary_evaluation_query', 'name': '查看辅助评估'}, {'code': 'traffic_evaluation_history_query', 'name': '查看车辆历史评估记录'}]}, {'code': 'vehicle_transfer_evaluation_audit', 'name': '车辆_转押车辆评估审核', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'vehicle_full_evaluation_audit', 'name': '车辆_全款车辆评估审核', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'entry_business_entry_audit', 'name': '进件_业务进件审核', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}, {'code': 'guarantee_record_query', 'name': '查询担保记录'}, {'code': 'account_info_query', 'name': '账户信息查询'}, {'code': 'account_info_edit', 'name': '账户信息编辑'}, {'code': 'partner_query', 'name': '合作方查询'}, {'code': 'partner_edit', 'name': '合作方编辑'}]}, {'code': 'entry_audit_entry_manage', 'name': '进件_审核进件管理', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}]}, {'code': 'vehicle_stock_manage', 'name': '车辆_车辆库存管理', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}]}, {'code': 'entry_asset_query_department', 'name': '进件_查询进件(部门)', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'entry_asset_query_company', 'name': '进件_查询进件(公司)', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'entry_asset_jiedi_manage', 'name': '进件_解抵审核', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}, {'code': 'asset_application_edit', 'name': '编辑进件'}]}], 'modifier': None, 'orgId': '201', 'positions': [{'positionName': '管理员', 'accountId': '223', 'id': '251', 'currentFlag': False, 'orgId': '201'}, {'positionName': '进件管理岗位', 'accountId': '223', 'id': '252', 'currentFlag': False, 'orgId': '202'}, {'positionName': '运营管理岗位', 'accountId': '223', 'id': '253', 'currentFlag': False, 'orgId': '203'}, {'positionName': '风控管理岗位', 'accountId': '223', 'id': '254', 'currentFlag': False, 'orgId': '204'}, {'positionName': '服务管理岗位', 'accountId': '223', 'id': '255', 'currentFlag': True, 'orgId': '205'}, {'positionName': '财务管理岗位', 'accountId': '223', 'id': '256', 'currentFlag': False, 'orgId': '206'}, {'positionName': '发标管理岗位', 'accountId': '223', 'id': '257', 'currentFlag': False, 'orgId': '207'}], 'manageRole': True, 'firstLoginFlag': None, 'telephone': '18519030808', 'curPositionId': '255', 'commuterStatus': 1, 'userName': '万事达', 'companyId': '26', 'creator': None, 'companyTypeList': [2, 8], 'companyName': '万事达有限公司'}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_QHBM_006</t>
@@ -197,7 +188,7 @@
     <t>发标部</t>
   </si>
   <si>
-    <t>{'data': {'telephone': '18519030808', 'modifier': None, 'companyId': '26', 'firstLoginFlag': None, 'version': None, 'userName': '万事达', 'createdTime': None, 'orgId': '201', 'companyName': '万事达有限公司', 'curPositionId': '257', 'companyTypeList': [2, 8], 'commuterStatus': 1, 'roles': [{'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_asset_output', 'name': '进件_资产输出'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_asset_output_manage', 'name': '进件_资产输出管理'}, {'permissions': [{'code': 'risk_serach_asset', 'name': '查询进件'}, {'code': 'risk_asset_output', 'name': '进件风控信息输出'}, {'code': 'confirm_risk_result', 'name': '确认资金方风控结果'}], 'code': 'entry_asset_risk_output', 'name': '进件_风控输出'}, {'permissions': [{'code': 'risk_serach_asset', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}], 'code': 'entry_asset_risk_output_manage', 'name': '进件_风控输出管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_asset_query_department', 'name': '进件_查询进件(部门)'}], 'needImgCode': None, 'manageRole': True, 'modifiedTime': None, 'positions': [{'accountId': '223', 'orgId': '201', 'id': '251', 'currentFlag': False, 'positionName': '管理员'}, {'accountId': '223', 'orgId': '202', 'id': '252', 'currentFlag': False, 'positionName': '进件管理岗位'}, {'accountId': '223', 'orgId': '203', 'id': '253', 'currentFlag': False, 'positionName': '运营管理岗位'}, {'accountId': '223', 'orgId': '204', 'id': '254', 'currentFlag': False, 'positionName': '风控管理岗位'}, {'accountId': '223', 'orgId': '205', 'id': '255', 'currentFlag': False, 'positionName': '服务管理岗位'}, {'accountId': '223', 'orgId': '206', 'id': '256', 'currentFlag': False, 'positionName': '财务管理岗位'}, {'accountId': '223', 'orgId': '207', 'id': '257', 'currentFlag': True, 'positionName': '发标管理岗位'}], 'id': '223', 'creator': None, 'account': 'WSDYXGS1_wansd1'}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'account': 'WSDYXGS1_wansd1', 'modifiedTime': None, 'id': '223', 'version': None, 'needImgCode': None, 'roles': [{'code': 'entry_asset_output', 'name': '进件_资产输出', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'entry_asset_output_manage', 'name': '进件_资产输出管理', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'entry_asset_risk_output', 'name': '进件_风控输出', 'permissions': [{'code': 'risk_serach_asset', 'name': '查询进件'}, {'code': 'risk_asset_output', 'name': '进件风控信息输出'}, {'code': 'confirm_risk_result', 'name': '确认资金方风控结果'}]}, {'code': 'entry_asset_risk_output_manage', 'name': '进件_风控输出管理', 'permissions': [{'code': 'risk_serach_asset', 'name': '查询进件'}, {'code': 'application_task_change_handler', 'name': '分配/更换 负责人'}]}, {'code': 'entry_asset_query_department', 'name': '进件_查询进件(部门)', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}], 'modifier': None, 'orgId': '201', 'positions': [{'positionName': '管理员', 'accountId': '223', 'id': '251', 'currentFlag': False, 'orgId': '201'}, {'positionName': '进件管理岗位', 'accountId': '223', 'id': '252', 'currentFlag': False, 'orgId': '202'}, {'positionName': '运营管理岗位', 'accountId': '223', 'id': '253', 'currentFlag': False, 'orgId': '203'}, {'positionName': '风控管理岗位', 'accountId': '223', 'id': '254', 'currentFlag': False, 'orgId': '204'}, {'positionName': '服务管理岗位', 'accountId': '223', 'id': '255', 'currentFlag': False, 'orgId': '205'}, {'positionName': '财务管理岗位', 'accountId': '223', 'id': '256', 'currentFlag': False, 'orgId': '206'}, {'positionName': '发标管理岗位', 'accountId': '223', 'id': '257', 'currentFlag': True, 'orgId': '207'}], 'manageRole': True, 'firstLoginFlag': None, 'telephone': '18519030808', 'curPositionId': '257', 'commuterStatus': 1, 'userName': '万事达', 'companyId': '26', 'creator': None, 'companyTypeList': [2, 8], 'companyName': '万事达有限公司'}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_QHBM_007</t>
@@ -209,7 +200,7 @@
     <t>管理员</t>
   </si>
   <si>
-    <t>{'data': {'telephone': '18519030808', 'modifier': None, 'companyId': '26', 'firstLoginFlag': None, 'version': None, 'userName': '万事达', 'createdTime': None, 'orgId': '201', 'companyName': '万事达有限公司', 'curPositionId': '258', 'companyTypeList': [2, 8], 'commuterStatus': 1, 'roles': [{'permissions': [{'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'organization_edit', 'name': '编辑组织结构'}], 'code': 'organization_manage', 'name': '基础_组织结构管理'}, {'permissions': [{'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'position_manage', 'name': '管理岗位职能'}, {'code': 'account_manage', 'name': '管理账号'}], 'code': 'position_permission_manage', 'name': '基础_岗位权限管理'}, {'permissions': [{'code': 'company_enter_manage', 'name': '管理公司入驻'}, {'code': 'workflow_template_manage', 'name': '工作流模板管理'}, {'code': 'workflow_query', 'name': '查询工作流版本'}, {'code': 'workflow_edit', 'name': '编辑工作流版本'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'partner_query', 'name': '合作方查询'}, {'code': 'account_info_query', 'name': '账户信息查询'}, {'code': 'balance_fee_query', 'name': '余额费用查询'}, {'code': 'asset_type_choose_edit', 'name': '资产类型选用编辑'}, {'code': 'partner_edit', 'name': '合作方编辑'}, {'code': 'account_info_edit', 'name': '账户信息编辑'}], 'code': 'asset_company_manage', 'name': '基础_资产公司管理'}, {'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}], 'code': 'entry_asset_query_company', 'name': '进件_查询进件(公司)'}, {'permissions': [{'code': 'config_management_query', 'name': '台账配置管理查询'}, {'code': 'config_management_edit', 'name': '台账配置管理编辑'}], 'code': 'base_sb_config_management', 'name': '基础_台账配置管理'}], 'needImgCode': None, 'manageRole': False, 'modifiedTime': None, 'positions': [{'accountId': '223', 'orgId': '201', 'id': '251', 'currentFlag': False, 'positionName': '管理员'}, {'accountId': '223', 'orgId': '202', 'id': '252', 'currentFlag': False, 'positionName': '进件管理岗位'}, {'accountId': '223', 'orgId': '203', 'id': '253', 'currentFlag': False, 'positionName': '运营管理岗位'}, {'accountId': '223', 'orgId': '204', 'id': '254', 'currentFlag': False, 'positionName': '风控管理岗位'}, {'accountId': '223', 'orgId': '205', 'id': '255', 'currentFlag': False, 'positionName': '服务管理岗位'}, {'accountId': '223', 'orgId': '206', 'id': '256', 'currentFlag': False, 'positionName': '财务管理岗位'}, {'accountId': '223', 'orgId': '207', 'id': '257', 'currentFlag': False, 'positionName': '发标管理岗位'}], 'id': '223', 'creator': None, 'account': 'WSDYXGS1_wansd1'}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'account': 'WSDYXGS1_wansd1', 'modifiedTime': None, 'id': '223', 'version': None, 'needImgCode': None, 'roles': [{'code': 'organization_manage', 'name': '基础_组织结构管理', 'permissions': [{'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'organization_edit', 'name': '编辑组织结构'}]}, {'code': 'position_permission_manage', 'name': '基础_岗位权限管理', 'permissions': [{'code': 'organization_query', 'name': '查询组织结构'}, {'code': 'position_manage', 'name': '管理岗位职能'}, {'code': 'account_manage', 'name': '管理账号'}]}, {'code': 'asset_company_manage', 'name': '基础_资产公司管理', 'permissions': [{'code': 'company_enter_manage', 'name': '管理公司入驻'}, {'code': 'workflow_template_manage', 'name': '工作流模板管理'}, {'code': 'workflow_query', 'name': '查询工作流版本'}, {'code': 'workflow_edit', 'name': '编辑工作流版本'}, {'code': 'asset_type_choose_query', 'name': '资产类型选用查询'}, {'code': 'partner_query', 'name': '合作方查询'}, {'code': 'account_info_query', 'name': '账户信息查询'}, {'code': 'balance_fee_query', 'name': '余额费用查询'}, {'code': 'asset_type_choose_edit', 'name': '资产类型选用编辑'}, {'code': 'partner_edit', 'name': '合作方编辑'}, {'code': 'account_info_edit', 'name': '账户信息编辑'}]}, {'code': 'entry_asset_query_company', 'name': '进件_查询进件(公司)', 'permissions': [{'code': 'asset_application_query', 'name': '查询进件'}]}, {'code': 'base_sb_config_management', 'name': '基础_台账配置管理', 'permissions': [{'code': 'config_management_query', 'name': '台账配置管理查询'}, {'code': 'config_management_edit', 'name': '台账配置管理编辑'}]}], 'modifier': None, 'orgId': '201', 'positions': [{'positionName': '管理员', 'accountId': '223', 'id': '251', 'currentFlag': False, 'orgId': '201'}, {'positionName': '进件管理岗位', 'accountId': '223', 'id': '252', 'currentFlag': False, 'orgId': '202'}, {'positionName': '运营管理岗位', 'accountId': '223', 'id': '253', 'currentFlag': False, 'orgId': '203'}, {'positionName': '风控管理岗位', 'accountId': '223', 'id': '254', 'currentFlag': False, 'orgId': '204'}, {'positionName': '服务管理岗位', 'accountId': '223', 'id': '255', 'currentFlag': False, 'orgId': '205'}, {'positionName': '财务管理岗位', 'accountId': '223', 'id': '256', 'currentFlag': False, 'orgId': '206'}, {'positionName': '发标管理岗位', 'accountId': '223', 'id': '257', 'currentFlag': False, 'orgId': '207'}], 'manageRole': False, 'firstLoginFlag': None, 'telephone': '18519030808', 'curPositionId': '258', 'commuterStatus': 1, 'userName': '万事达', 'companyId': '26', 'creator': None, 'companyTypeList': [2, 8], 'companyName': '万事达有限公司'}, 'message': ''}</t>
   </si>
   <si>
     <t>资产类型</t>
@@ -332,10 +323,10 @@
     <t>[\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg\"]</t>
   </si>
   <si>
-    <t>72592</t>
-  </si>
-  <si>
-    <t>{'data': {'businessType': 5, 'id': '72592', 'assetItemTelephoneVerifyInfo': None, 'type': 1, 'version': None, 'item': None, 'assetId': '22', 'assetInFinanceVersion': '', 'modifiedTime': None, 'assetItemDrivingLicenseInfo': None, 'createdTime': None, 'previousAssetItemId': None, 'step': 2, 'assetItemCustomerInfo': None, 'deleted': None, 'propertyList': [{'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyCode': 'customerTelephone', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '61', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '9618', 'propertyCode': 'borrowAmount', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '100', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': 'qs_t', 'propertyCode': 'rateMethod', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '194', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '3', 'propertyCode': 'repaymentWay', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '177', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '15', 'propertyCode': 'repaymentDuration', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '308', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '201', 'propertyCode': 'financeProductId', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '171', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'customerSource', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '307', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'chedyt1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '20264', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyCode': 'customerName', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '174', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyCode': 'idCard', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '214', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '的撒', 'propertyCode': 'domicilePlace', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '215', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '汉', 'propertyCode': 'nation', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '218', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '男', 'propertyCode': 'sex', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '217', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyCode': 'chusrq1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10186', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyCode': 'cardValidPeriodEnd', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '216', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyCode': 'idCardFrontPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10319', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyCode': 'idCardBackPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10320', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyCode': 'xingszsy1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '236', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}], 'creator': None, 'taskId': None, 'modifier': None}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>72776</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'id': '72776', 'version': None, 'taskId': None, 'item': None, 'assetItemDrivingLicenseInfo': None, 'modifier': None, 'assetItemCustomerInfo': None, 'type': 1, 'creator': None, 'previousAssetItemId': None, 'assetItemTelephoneVerifyInfo': None, 'assetId': '22', 'businessType': 5, 'deleted': None, 'modifiedTime': None, 'assetInFinanceVersion': '', 'step': 2, 'propertyList': [{'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '61', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerTelephone', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '100', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'borrowAmount', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '9618', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '194', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'rateMethod', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': 'qs_t', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '177', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentWay', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '3', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '308', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentDuration', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '15', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '171', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'financeProductId', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '201', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '307', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerSource', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '20264', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chedyt1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '174', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerName', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '214', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCard', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '215', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'domicilePlace', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '的撒', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '218', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'nation', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '汉', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '217', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'sex', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '男', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10186', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chusrq1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '216', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'cardValidPeriodEnd', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10319', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardFrontPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10320', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardBackPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '236', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'xingszsy1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}]}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_XZJJ_002</t>
@@ -368,10 +359,10 @@
     <t>420101199404166850</t>
   </si>
   <si>
-    <t>72593</t>
-  </si>
-  <si>
-    <t>{'data': {'businessType': 5, 'id': '72593', 'assetItemTelephoneVerifyInfo': None, 'type': 1, 'version': None, 'item': None, 'assetId': '23', 'assetInFinanceVersion': '', 'modifiedTime': None, 'assetItemDrivingLicenseInfo': None, 'createdTime': None, 'previousAssetItemId': None, 'step': 2, 'assetItemCustomerInfo': None, 'deleted': None, 'propertyList': [{'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '13296747005', 'propertyCode': 'customerTelephone', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '61', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '9619', 'propertyCode': 'borrowAmount', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '100', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyCode': 'rateMethod', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '194', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '3', 'propertyCode': 'repaymentWay', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '177', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1', 'propertyCode': 'repaymentDuration', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '308', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '211', 'propertyCode': 'financeProductId', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '171', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'customerSource', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '307', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'chedyt1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '20264', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '大连濠林汽车经纪服务有限公司', 'propertyCode': 'customerName', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '174', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '420101199404166850', 'propertyCode': 'idCard', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '214', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '的撒', 'propertyCode': 'domicilePlace', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '215', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '汉', 'propertyCode': 'nation', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '218', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '男', 'propertyCode': 'sex', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '217', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyCode': 'chusrq1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10186', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyCode': 'cardValidPeriodEnd', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '216', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyCode': 'idCardFrontPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10319', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyCode': 'idCardBackPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10320', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyCode': 'xingszsy1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '236', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}], 'creator': None, 'taskId': None, 'modifier': None}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>72777</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'id': '72777', 'version': None, 'taskId': None, 'item': None, 'assetItemDrivingLicenseInfo': None, 'modifier': None, 'assetItemCustomerInfo': None, 'type': 1, 'creator': None, 'previousAssetItemId': None, 'assetItemTelephoneVerifyInfo': None, 'assetId': '23', 'businessType': 5, 'deleted': None, 'modifiedTime': None, 'assetInFinanceVersion': '', 'step': 2, 'propertyList': [{'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '61', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerTelephone', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '13296747005', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '100', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'borrowAmount', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '9619', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '194', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'rateMethod', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '177', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentWay', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '3', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '308', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentDuration', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '171', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'financeProductId', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '211', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '307', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerSource', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '20264', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chedyt1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '174', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerName', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '大连濠林汽车经纪服务有限公司', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '214', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCard', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '420101199404166850', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '215', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'domicilePlace', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '的撒', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '218', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'nation', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '汉', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '217', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'sex', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '男', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10186', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chusrq1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '216', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'cardValidPeriodEnd', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10319', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardFrontPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10320', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardBackPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '236', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'xingszsy1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}]}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_XZJJ_003</t>
@@ -389,10 +380,10 @@
     <t>等额本息</t>
   </si>
   <si>
-    <t>72594</t>
-  </si>
-  <si>
-    <t>{'data': {'businessType': 5, 'id': '72594', 'assetItemTelephoneVerifyInfo': None, 'type': 1, 'version': None, 'item': None, 'assetId': '22', 'assetInFinanceVersion': '', 'modifiedTime': None, 'assetItemDrivingLicenseInfo': None, 'createdTime': None, 'previousAssetItemId': None, 'step': 2, 'assetItemCustomerInfo': None, 'deleted': None, 'propertyList': [{'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyCode': 'customerTelephone', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '61', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '9620', 'propertyCode': 'borrowAmount', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '100', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyCode': 'rateMethod', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '194', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1', 'propertyCode': 'repaymentWay', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '177', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1', 'propertyCode': 'repaymentDuration', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '308', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '199', 'propertyCode': 'financeProductId', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '171', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'customerSource', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '307', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'chedyt1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '20264', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyCode': 'customerName', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '174', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyCode': 'idCard', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '214', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '的撒', 'propertyCode': 'domicilePlace', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '215', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '汉', 'propertyCode': 'nation', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '218', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '男', 'propertyCode': 'sex', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '217', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyCode': 'chusrq1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10186', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyCode': 'cardValidPeriodEnd', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '216', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyCode': 'idCardFrontPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10319', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyCode': 'idCardBackPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10320', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyCode': 'xingszsy1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '236', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}], 'creator': None, 'taskId': None, 'modifier': None}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>72778</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'id': '72778', 'version': None, 'taskId': None, 'item': None, 'assetItemDrivingLicenseInfo': None, 'modifier': None, 'assetItemCustomerInfo': None, 'type': 1, 'creator': None, 'previousAssetItemId': None, 'assetItemTelephoneVerifyInfo': None, 'assetId': '22', 'businessType': 5, 'deleted': None, 'modifiedTime': None, 'assetInFinanceVersion': '', 'step': 2, 'propertyList': [{'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '61', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerTelephone', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '100', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'borrowAmount', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '9620', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '194', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'rateMethod', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '177', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentWay', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '308', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentDuration', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '171', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'financeProductId', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '199', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '307', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerSource', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '20264', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chedyt1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '174', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerName', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '214', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCard', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '215', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'domicilePlace', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '的撒', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '218', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'nation', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '汉', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '217', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'sex', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '男', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10186', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chusrq1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '216', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'cardValidPeriodEnd', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10319', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardFrontPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10320', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardBackPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '236', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'xingszsy1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}]}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_XZJJ_004</t>
@@ -404,10 +395,10 @@
     <t>9621</t>
   </si>
   <si>
-    <t>72595</t>
-  </si>
-  <si>
-    <t>{'data': {'businessType': 5, 'id': '72595', 'assetItemTelephoneVerifyInfo': None, 'type': 1, 'version': None, 'item': None, 'assetId': '22', 'assetInFinanceVersion': '', 'modifiedTime': None, 'assetItemDrivingLicenseInfo': None, 'createdTime': None, 'previousAssetItemId': None, 'step': 2, 'assetItemCustomerInfo': None, 'deleted': None, 'propertyList': [{'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyCode': 'customerTelephone', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '61', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '9621', 'propertyCode': 'borrowAmount', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '100', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': 'qs_t', 'propertyCode': 'rateMethod', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '194', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '3', 'propertyCode': 'repaymentWay', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '177', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '15', 'propertyCode': 'repaymentDuration', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '308', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '201', 'propertyCode': 'financeProductId', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '171', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'customerSource', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '307', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'chedyt1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '20264', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyCode': 'customerName', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '174', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyCode': 'idCard', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '214', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '的撒', 'propertyCode': 'domicilePlace', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '215', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '汉', 'propertyCode': 'nation', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '218', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '男', 'propertyCode': 'sex', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '217', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyCode': 'chusrq1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10186', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyCode': 'cardValidPeriodEnd', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '216', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyCode': 'idCardFrontPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10319', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyCode': 'idCardBackPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10320', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyCode': 'xingszsy1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '236', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}], 'creator': None, 'taskId': None, 'modifier': None}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>72779</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'id': '72779', 'version': None, 'taskId': None, 'item': None, 'assetItemDrivingLicenseInfo': None, 'modifier': None, 'assetItemCustomerInfo': None, 'type': 1, 'creator': None, 'previousAssetItemId': None, 'assetItemTelephoneVerifyInfo': None, 'assetId': '22', 'businessType': 5, 'deleted': None, 'modifiedTime': None, 'assetInFinanceVersion': '', 'step': 2, 'propertyList': [{'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '61', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerTelephone', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '100', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'borrowAmount', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '9621', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '194', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'rateMethod', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': 'qs_t', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '177', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentWay', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '3', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '308', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentDuration', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '15', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '171', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'financeProductId', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '201', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '307', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerSource', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '20264', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chedyt1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '174', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerName', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '214', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCard', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '215', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'domicilePlace', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '的撒', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '218', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'nation', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '汉', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '217', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'sex', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '男', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10186', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chusrq1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '216', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'cardValidPeriodEnd', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10319', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardFrontPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10320', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardBackPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '236', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'xingszsy1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}]}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_XZJJ_005</t>
@@ -419,10 +410,10 @@
     <t>9622</t>
   </si>
   <si>
-    <t>72596</t>
-  </si>
-  <si>
-    <t>{'data': {'businessType': 5, 'id': '72596', 'assetItemTelephoneVerifyInfo': None, 'type': 1, 'version': None, 'item': None, 'assetId': '22', 'assetInFinanceVersion': '', 'modifiedTime': None, 'assetItemDrivingLicenseInfo': None, 'createdTime': None, 'previousAssetItemId': None, 'step': 2, 'assetItemCustomerInfo': None, 'deleted': None, 'propertyList': [{'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyCode': 'customerTelephone', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '61', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '9622', 'propertyCode': 'borrowAmount', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '100', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyCode': 'rateMethod', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '194', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1', 'propertyCode': 'repaymentWay', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '177', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1', 'propertyCode': 'repaymentDuration', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '308', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '199', 'propertyCode': 'financeProductId', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '171', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'customerSource', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '307', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'chedyt1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '20264', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyCode': 'customerName', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '174', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyCode': 'idCard', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '214', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '的撒', 'propertyCode': 'domicilePlace', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '215', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '汉', 'propertyCode': 'nation', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '218', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '男', 'propertyCode': 'sex', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '217', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyCode': 'chusrq1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10186', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyCode': 'cardValidPeriodEnd', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '216', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyCode': 'idCardFrontPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10319', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyCode': 'idCardBackPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10320', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyCode': 'xingszsy1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '236', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}], 'creator': None, 'taskId': None, 'modifier': None}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>72780</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'id': '72780', 'version': None, 'taskId': None, 'item': None, 'assetItemDrivingLicenseInfo': None, 'modifier': None, 'assetItemCustomerInfo': None, 'type': 1, 'creator': None, 'previousAssetItemId': None, 'assetItemTelephoneVerifyInfo': None, 'assetId': '22', 'businessType': 5, 'deleted': None, 'modifiedTime': None, 'assetInFinanceVersion': '', 'step': 2, 'propertyList': [{'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '61', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerTelephone', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '100', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'borrowAmount', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '9622', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '194', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'rateMethod', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '177', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentWay', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '308', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentDuration', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '171', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'financeProductId', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '199', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '307', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerSource', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '20264', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chedyt1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '174', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerName', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '214', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCard', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '215', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'domicilePlace', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '的撒', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '218', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'nation', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '汉', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '217', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'sex', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '男', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10186', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chusrq1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '216', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'cardValidPeriodEnd', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10319', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardFrontPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10320', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardBackPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '236', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'xingszsy1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}]}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_XZJJ_006</t>
@@ -443,10 +434,10 @@
     <t>3个月</t>
   </si>
   <si>
-    <t>72597</t>
-  </si>
-  <si>
-    <t>{'data': {'businessType': 5, 'id': '72597', 'assetItemTelephoneVerifyInfo': None, 'type': 1, 'version': None, 'item': None, 'assetId': '22', 'assetInFinanceVersion': '', 'modifiedTime': None, 'assetItemDrivingLicenseInfo': None, 'createdTime': None, 'previousAssetItemId': None, 'step': 2, 'assetItemCustomerInfo': None, 'deleted': None, 'propertyList': [{'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyCode': 'customerTelephone', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '61', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '9623', 'propertyCode': 'borrowAmount', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '100', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyCode': 'rateMethod', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '194', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '2', 'propertyCode': 'repaymentWay', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '177', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '3', 'propertyCode': 'repaymentDuration', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '308', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '200', 'propertyCode': 'financeProductId', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '171', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'customerSource', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '307', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'chedyt1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '20264', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyCode': 'customerName', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '174', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyCode': 'idCard', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '214', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '的撒', 'propertyCode': 'domicilePlace', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '215', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '汉', 'propertyCode': 'nation', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '218', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '男', 'propertyCode': 'sex', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '217', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyCode': 'chusrq1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10186', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyCode': 'cardValidPeriodEnd', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '216', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyCode': 'idCardFrontPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10319', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyCode': 'idCardBackPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10320', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyCode': 'xingszsy1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '236', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}], 'creator': None, 'taskId': None, 'modifier': None}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>72781</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'id': '72781', 'version': None, 'taskId': None, 'item': None, 'assetItemDrivingLicenseInfo': None, 'modifier': None, 'assetItemCustomerInfo': None, 'type': 1, 'creator': None, 'previousAssetItemId': None, 'assetItemTelephoneVerifyInfo': None, 'assetId': '22', 'businessType': 5, 'deleted': None, 'modifiedTime': None, 'assetInFinanceVersion': '', 'step': 2, 'propertyList': [{'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '61', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerTelephone', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '100', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'borrowAmount', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '9623', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '194', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'rateMethod', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '177', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentWay', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '2', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '308', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentDuration', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '3', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '171', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'financeProductId', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '200', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '307', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerSource', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '20264', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chedyt1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '174', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerName', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '214', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCard', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '215', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'domicilePlace', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '的撒', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '218', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'nation', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '汉', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '217', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'sex', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '男', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10186', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chusrq1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '216', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'cardValidPeriodEnd', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10319', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardFrontPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10320', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardBackPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '236', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'xingszsy1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}]}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_XZJJ_007</t>
@@ -458,10 +449,10 @@
     <t>9624</t>
   </si>
   <si>
-    <t>72598</t>
-  </si>
-  <si>
-    <t>{'data': {'businessType': 5, 'id': '72598', 'assetItemTelephoneVerifyInfo': None, 'type': 1, 'version': None, 'item': None, 'assetId': '22', 'assetInFinanceVersion': '', 'modifiedTime': None, 'assetItemDrivingLicenseInfo': None, 'createdTime': None, 'previousAssetItemId': None, 'step': 2, 'assetItemCustomerInfo': None, 'deleted': None, 'propertyList': [{'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyCode': 'customerTelephone', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '61', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '9624', 'propertyCode': 'borrowAmount', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '100', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': 'qs_t', 'propertyCode': 'rateMethod', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '194', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '3', 'propertyCode': 'repaymentWay', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '177', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '15', 'propertyCode': 'repaymentDuration', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '308', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '201', 'propertyCode': 'financeProductId', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '171', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'customerSource', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '307', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'chedyt1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '20264', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyCode': 'customerName', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '174', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyCode': 'idCard', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '214', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '的撒', 'propertyCode': 'domicilePlace', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '215', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '汉', 'propertyCode': 'nation', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '218', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '男', 'propertyCode': 'sex', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '217', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyCode': 'chusrq1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10186', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyCode': 'cardValidPeriodEnd', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '216', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyCode': 'idCardFrontPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10319', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyCode': 'idCardBackPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10320', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyCode': 'xingszsy1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '236', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}], 'creator': None, 'taskId': None, 'modifier': None}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>72782</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'id': '72782', 'version': None, 'taskId': None, 'item': None, 'assetItemDrivingLicenseInfo': None, 'modifier': None, 'assetItemCustomerInfo': None, 'type': 1, 'creator': None, 'previousAssetItemId': None, 'assetItemTelephoneVerifyInfo': None, 'assetId': '22', 'businessType': 5, 'deleted': None, 'modifiedTime': None, 'assetInFinanceVersion': '', 'step': 2, 'propertyList': [{'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '61', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerTelephone', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '100', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'borrowAmount', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '9624', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '194', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'rateMethod', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': 'qs_t', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '177', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentWay', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '3', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '308', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentDuration', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '15', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '171', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'financeProductId', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '201', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '307', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerSource', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '20264', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chedyt1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '174', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerName', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '214', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCard', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '215', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'domicilePlace', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '的撒', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '218', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'nation', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '汉', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '217', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'sex', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '男', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10186', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chusrq1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '216', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'cardValidPeriodEnd', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10319', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardFrontPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10320', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardBackPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '236', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'xingszsy1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}]}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_XZJJ_008</t>
@@ -473,10 +464,10 @@
     <t>9625</t>
   </si>
   <si>
-    <t>72599</t>
-  </si>
-  <si>
-    <t>{'data': {'businessType': 5, 'id': '72599', 'assetItemTelephoneVerifyInfo': None, 'type': 1, 'version': None, 'item': None, 'assetId': '22', 'assetInFinanceVersion': '', 'modifiedTime': None, 'assetItemDrivingLicenseInfo': None, 'createdTime': None, 'previousAssetItemId': None, 'step': 2, 'assetItemCustomerInfo': None, 'deleted': None, 'propertyList': [{'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyCode': 'customerTelephone', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '61', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '9625', 'propertyCode': 'borrowAmount', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '100', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyCode': 'rateMethod', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '194', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1', 'propertyCode': 'repaymentWay', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '177', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1', 'propertyCode': 'repaymentDuration', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '308', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '199', 'propertyCode': 'financeProductId', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '171', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'customerSource', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '307', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'chedyt1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '20264', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyCode': 'customerName', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '174', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyCode': 'idCard', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '214', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '的撒', 'propertyCode': 'domicilePlace', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '215', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '汉', 'propertyCode': 'nation', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '218', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '男', 'propertyCode': 'sex', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '217', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyCode': 'chusrq1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10186', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyCode': 'cardValidPeriodEnd', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '216', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyCode': 'idCardFrontPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10319', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyCode': 'idCardBackPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10320', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyCode': 'xingszsy1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '236', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}], 'creator': None, 'taskId': None, 'modifier': None}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>72783</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'id': '72783', 'version': None, 'taskId': None, 'item': None, 'assetItemDrivingLicenseInfo': None, 'modifier': None, 'assetItemCustomerInfo': None, 'type': 1, 'creator': None, 'previousAssetItemId': None, 'assetItemTelephoneVerifyInfo': None, 'assetId': '22', 'businessType': 5, 'deleted': None, 'modifiedTime': None, 'assetInFinanceVersion': '', 'step': 2, 'propertyList': [{'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '61', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerTelephone', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '100', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'borrowAmount', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '9625', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '194', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'rateMethod', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '177', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentWay', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '308', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentDuration', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '171', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'financeProductId', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '199', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '307', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerSource', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '20264', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chedyt1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '174', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerName', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '214', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCard', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '215', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'domicilePlace', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '的撒', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '218', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'nation', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '汉', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '217', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'sex', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '男', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10186', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chusrq1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '216', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'cardValidPeriodEnd', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10319', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardFrontPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10320', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardBackPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '236', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'xingszsy1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}]}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_XZJJ_009</t>
@@ -488,10 +479,10 @@
     <t>9626</t>
   </si>
   <si>
-    <t>72600</t>
-  </si>
-  <si>
-    <t>{'data': {'businessType': 5, 'id': '72600', 'assetItemTelephoneVerifyInfo': None, 'type': 1, 'version': None, 'item': None, 'assetId': '22', 'assetInFinanceVersion': '', 'modifiedTime': None, 'assetItemDrivingLicenseInfo': None, 'createdTime': None, 'previousAssetItemId': None, 'step': 2, 'assetItemCustomerInfo': None, 'deleted': None, 'propertyList': [{'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyCode': 'customerTelephone', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '61', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '9626', 'propertyCode': 'borrowAmount', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '100', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyCode': 'rateMethod', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '194', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '2', 'propertyCode': 'repaymentWay', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '177', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '3', 'propertyCode': 'repaymentDuration', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '308', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '200', 'propertyCode': 'financeProductId', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '171', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'customerSource', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '307', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'chedyt1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '20264', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyCode': 'customerName', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '174', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyCode': 'idCard', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '214', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '的撒', 'propertyCode': 'domicilePlace', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '215', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '汉', 'propertyCode': 'nation', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '218', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '男', 'propertyCode': 'sex', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '217', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyCode': 'chusrq1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10186', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyCode': 'cardValidPeriodEnd', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '216', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyCode': 'idCardFrontPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10319', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyCode': 'idCardBackPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10320', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyCode': 'xingszsy1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '236', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}], 'creator': None, 'taskId': None, 'modifier': None}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>72784</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'id': '72784', 'version': None, 'taskId': None, 'item': None, 'assetItemDrivingLicenseInfo': None, 'modifier': None, 'assetItemCustomerInfo': None, 'type': 1, 'creator': None, 'previousAssetItemId': None, 'assetItemTelephoneVerifyInfo': None, 'assetId': '22', 'businessType': 5, 'deleted': None, 'modifiedTime': None, 'assetInFinanceVersion': '', 'step': 2, 'propertyList': [{'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '61', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerTelephone', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '100', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'borrowAmount', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '9626', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '194', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'rateMethod', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '177', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentWay', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '2', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '308', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentDuration', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '3', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '171', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'financeProductId', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '200', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '307', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerSource', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '20264', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chedyt1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '174', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerName', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '214', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCard', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '215', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'domicilePlace', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '的撒', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '218', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'nation', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '汉', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '217', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'sex', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '男', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10186', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chusrq1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '216', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'cardValidPeriodEnd', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10319', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardFrontPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10320', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardBackPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '236', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'xingszsy1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}]}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_XZJJ_010</t>
@@ -509,10 +500,10 @@
     <t>6个月</t>
   </si>
   <si>
-    <t>72601</t>
-  </si>
-  <si>
-    <t>{'data': {'businessType': 5, 'id': '72601', 'assetItemTelephoneVerifyInfo': None, 'type': 1, 'version': None, 'item': None, 'assetId': '22', 'assetInFinanceVersion': '', 'modifiedTime': None, 'assetItemDrivingLicenseInfo': None, 'createdTime': None, 'previousAssetItemId': None, 'step': 2, 'assetItemCustomerInfo': None, 'deleted': None, 'propertyList': [{'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyCode': 'customerTelephone', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '61', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '9627', 'propertyCode': 'borrowAmount', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '100', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyCode': 'rateMethod', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '194', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '2', 'propertyCode': 'repaymentWay', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '177', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '6', 'propertyCode': 'repaymentDuration', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '308', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '221', 'propertyCode': 'financeProductId', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '171', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'customerSource', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '307', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'chedyt1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '20264', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyCode': 'customerName', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '174', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyCode': 'idCard', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '214', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '的撒', 'propertyCode': 'domicilePlace', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '215', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '汉', 'propertyCode': 'nation', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '218', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '男', 'propertyCode': 'sex', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '217', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyCode': 'chusrq1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10186', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyCode': 'cardValidPeriodEnd', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '216', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyCode': 'idCardFrontPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10319', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyCode': 'idCardBackPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10320', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyCode': 'xingszsy1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '236', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}], 'creator': None, 'taskId': None, 'modifier': None}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>72785</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'id': '72785', 'version': None, 'taskId': None, 'item': None, 'assetItemDrivingLicenseInfo': None, 'modifier': None, 'assetItemCustomerInfo': None, 'type': 1, 'creator': None, 'previousAssetItemId': None, 'assetItemTelephoneVerifyInfo': None, 'assetId': '22', 'businessType': 5, 'deleted': None, 'modifiedTime': None, 'assetInFinanceVersion': '', 'step': 2, 'propertyList': [{'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '61', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerTelephone', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '100', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'borrowAmount', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '9627', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '194', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'rateMethod', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '177', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentWay', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '2', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '308', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentDuration', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '6', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '171', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'financeProductId', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '221', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '307', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerSource', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '20264', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chedyt1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '174', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerName', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '214', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCard', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '215', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'domicilePlace', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '的撒', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '218', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'nation', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '汉', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '217', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'sex', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '男', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10186', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chusrq1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '216', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'cardValidPeriodEnd', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10319', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardFrontPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10320', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardBackPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '236', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'xingszsy1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}]}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_XZJJ_011</t>
@@ -530,10 +521,10 @@
     <t>12个月</t>
   </si>
   <si>
-    <t>72602</t>
-  </si>
-  <si>
-    <t>{'data': {'businessType': 5, 'id': '72602', 'assetItemTelephoneVerifyInfo': None, 'type': 1, 'version': None, 'item': None, 'assetId': '22', 'assetInFinanceVersion': '', 'modifiedTime': None, 'assetItemDrivingLicenseInfo': None, 'createdTime': None, 'previousAssetItemId': None, 'step': 2, 'assetItemCustomerInfo': None, 'deleted': None, 'propertyList': [{'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyCode': 'customerTelephone', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '61', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '9628', 'propertyCode': 'borrowAmount', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '100', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyCode': 'rateMethod', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '194', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1', 'propertyCode': 'repaymentWay', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '177', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '12', 'propertyCode': 'repaymentDuration', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '308', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '222', 'propertyCode': 'financeProductId', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '171', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'customerSource', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '307', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'chedyt1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '20264', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyCode': 'customerName', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '174', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyCode': 'idCard', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '214', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '的撒', 'propertyCode': 'domicilePlace', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '215', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '汉', 'propertyCode': 'nation', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '218', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '男', 'propertyCode': 'sex', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '217', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyCode': 'chusrq1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10186', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyCode': 'cardValidPeriodEnd', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '216', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyCode': 'idCardFrontPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10319', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyCode': 'idCardBackPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10320', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyCode': 'xingszsy1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '236', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}], 'creator': None, 'taskId': None, 'modifier': None}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>72786</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'id': '72786', 'version': None, 'taskId': None, 'item': None, 'assetItemDrivingLicenseInfo': None, 'modifier': None, 'assetItemCustomerInfo': None, 'type': 1, 'creator': None, 'previousAssetItemId': None, 'assetItemTelephoneVerifyInfo': None, 'assetId': '22', 'businessType': 5, 'deleted': None, 'modifiedTime': None, 'assetInFinanceVersion': '', 'step': 2, 'propertyList': [{'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '61', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerTelephone', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '100', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'borrowAmount', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '9628', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '194', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'rateMethod', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '177', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentWay', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '308', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentDuration', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '12', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '171', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'financeProductId', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '222', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '307', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerSource', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '20264', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chedyt1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '174', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerName', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '214', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCard', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '215', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'domicilePlace', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '的撒', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '218', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'nation', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '汉', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '217', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'sex', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '男', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10186', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chusrq1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '216', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'cardValidPeriodEnd', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10319', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardFrontPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10320', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardBackPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '236', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'xingszsy1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}]}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_XZJJ_012</t>
@@ -545,10 +536,10 @@
     <t>9629</t>
   </si>
   <si>
-    <t>72603</t>
-  </si>
-  <si>
-    <t>{'data': {'businessType': 5, 'id': '72603', 'assetItemTelephoneVerifyInfo': None, 'type': 1, 'version': None, 'item': None, 'assetId': '22', 'assetInFinanceVersion': '', 'modifiedTime': None, 'assetItemDrivingLicenseInfo': None, 'createdTime': None, 'previousAssetItemId': None, 'step': 2, 'assetItemCustomerInfo': None, 'deleted': None, 'propertyList': [{'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyCode': 'customerTelephone', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '61', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '9629', 'propertyCode': 'borrowAmount', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '100', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': 'qs_t', 'propertyCode': 'rateMethod', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '194', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '3', 'propertyCode': 'repaymentWay', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '177', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '15', 'propertyCode': 'repaymentDuration', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '308', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '201', 'propertyCode': 'financeProductId', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '171', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'customerSource', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '307', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'chedyt1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '20264', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyCode': 'customerName', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '174', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyCode': 'idCard', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '214', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '的撒', 'propertyCode': 'domicilePlace', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '215', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '汉', 'propertyCode': 'nation', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '218', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '男', 'propertyCode': 'sex', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '217', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyCode': 'chusrq1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10186', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyCode': 'cardValidPeriodEnd', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '216', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyCode': 'idCardFrontPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10319', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyCode': 'idCardBackPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10320', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyCode': 'xingszsy1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '236', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}], 'creator': None, 'taskId': None, 'modifier': None}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>72787</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'id': '72787', 'version': None, 'taskId': None, 'item': None, 'assetItemDrivingLicenseInfo': None, 'modifier': None, 'assetItemCustomerInfo': None, 'type': 1, 'creator': None, 'previousAssetItemId': None, 'assetItemTelephoneVerifyInfo': None, 'assetId': '22', 'businessType': 5, 'deleted': None, 'modifiedTime': None, 'assetInFinanceVersion': '', 'step': 2, 'propertyList': [{'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '61', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerTelephone', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '100', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'borrowAmount', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '9629', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '194', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'rateMethod', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': 'qs_t', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '177', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentWay', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '3', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '308', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentDuration', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '15', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '171', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'financeProductId', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '201', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '307', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerSource', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '20264', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chedyt1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '174', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerName', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '214', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCard', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '215', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'domicilePlace', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '的撒', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '218', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'nation', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '汉', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '217', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'sex', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '男', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10186', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chusrq1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '216', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'cardValidPeriodEnd', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10319', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardFrontPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10320', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardBackPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '236', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'xingszsy1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}]}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_XZJJ_013</t>
@@ -560,10 +551,10 @@
     <t>9630</t>
   </si>
   <si>
-    <t>72604</t>
-  </si>
-  <si>
-    <t>{'data': {'businessType': 5, 'id': '72604', 'assetItemTelephoneVerifyInfo': None, 'type': 1, 'version': None, 'item': None, 'assetId': '22', 'assetInFinanceVersion': '', 'modifiedTime': None, 'assetItemDrivingLicenseInfo': None, 'createdTime': None, 'previousAssetItemId': None, 'step': 2, 'assetItemCustomerInfo': None, 'deleted': None, 'propertyList': [{'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyCode': 'customerTelephone', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '61', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '9630', 'propertyCode': 'borrowAmount', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '100', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyCode': 'rateMethod', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '194', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1', 'propertyCode': 'repaymentWay', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '177', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1', 'propertyCode': 'repaymentDuration', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '308', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '199', 'propertyCode': 'financeProductId', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '171', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'customerSource', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '307', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'chedyt1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '20264', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyCode': 'customerName', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '174', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyCode': 'idCard', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '214', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '的撒', 'propertyCode': 'domicilePlace', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '215', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '汉', 'propertyCode': 'nation', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '218', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '男', 'propertyCode': 'sex', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '217', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyCode': 'chusrq1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10186', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyCode': 'cardValidPeriodEnd', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '216', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyCode': 'idCardFrontPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10319', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyCode': 'idCardBackPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10320', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyCode': 'xingszsy1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '236', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}], 'creator': None, 'taskId': None, 'modifier': None}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>72788</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'id': '72788', 'version': None, 'taskId': None, 'item': None, 'assetItemDrivingLicenseInfo': None, 'modifier': None, 'assetItemCustomerInfo': None, 'type': 1, 'creator': None, 'previousAssetItemId': None, 'assetItemTelephoneVerifyInfo': None, 'assetId': '22', 'businessType': 5, 'deleted': None, 'modifiedTime': None, 'assetInFinanceVersion': '', 'step': 2, 'propertyList': [{'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '61', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerTelephone', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '100', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'borrowAmount', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '9630', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '194', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'rateMethod', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '177', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentWay', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '308', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentDuration', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '171', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'financeProductId', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '199', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '307', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerSource', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '20264', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chedyt1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '174', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerName', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '214', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCard', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '215', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'domicilePlace', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '的撒', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '218', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'nation', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '汉', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '217', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'sex', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '男', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10186', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chusrq1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '216', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'cardValidPeriodEnd', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10319', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardFrontPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10320', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardBackPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '236', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'xingszsy1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}]}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_XZJJ_014</t>
@@ -578,10 +569,10 @@
     <t>219</t>
   </si>
   <si>
-    <t>72605</t>
-  </si>
-  <si>
-    <t>{'data': {'businessType': 5, 'id': '72605', 'assetItemTelephoneVerifyInfo': None, 'type': 1, 'version': None, 'item': None, 'assetId': '22', 'assetInFinanceVersion': '', 'modifiedTime': None, 'assetItemDrivingLicenseInfo': None, 'createdTime': None, 'previousAssetItemId': None, 'step': 2, 'assetItemCustomerInfo': None, 'deleted': None, 'propertyList': [{'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyCode': 'customerTelephone', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '61', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '9631', 'propertyCode': 'borrowAmount', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '100', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyCode': 'rateMethod', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '194', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1', 'propertyCode': 'repaymentWay', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '177', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '3', 'propertyCode': 'repaymentDuration', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '308', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '219', 'propertyCode': 'financeProductId', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '171', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'customerSource', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '307', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'chedyt1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '20264', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyCode': 'customerName', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '174', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyCode': 'idCard', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '214', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '的撒', 'propertyCode': 'domicilePlace', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '215', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '汉', 'propertyCode': 'nation', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '218', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '男', 'propertyCode': 'sex', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '217', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyCode': 'chusrq1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10186', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyCode': 'cardValidPeriodEnd', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '216', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyCode': 'idCardFrontPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10319', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyCode': 'idCardBackPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10320', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyCode': 'xingszsy1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '236', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}], 'creator': None, 'taskId': None, 'modifier': None}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>72789</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'id': '72789', 'version': None, 'taskId': None, 'item': None, 'assetItemDrivingLicenseInfo': None, 'modifier': None, 'assetItemCustomerInfo': None, 'type': 1, 'creator': None, 'previousAssetItemId': None, 'assetItemTelephoneVerifyInfo': None, 'assetId': '22', 'businessType': 5, 'deleted': None, 'modifiedTime': None, 'assetInFinanceVersion': '', 'step': 2, 'propertyList': [{'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '61', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerTelephone', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '100', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'borrowAmount', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '9631', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '194', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'rateMethod', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '177', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentWay', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '308', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentDuration', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '3', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '171', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'financeProductId', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '219', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '307', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerSource', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '20264', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chedyt1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '174', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerName', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '214', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCard', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '215', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'domicilePlace', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '的撒', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '218', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'nation', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '汉', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '217', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'sex', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '男', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10186', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chusrq1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '216', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'cardValidPeriodEnd', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10319', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardFrontPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10320', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardBackPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '236', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'xingszsy1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}]}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_XZJJ_015</t>
@@ -596,10 +587,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>72606</t>
-  </si>
-  <si>
-    <t>{'data': {'businessType': 5, 'id': '72606', 'assetItemTelephoneVerifyInfo': None, 'type': 1, 'version': None, 'item': None, 'assetId': '22', 'assetInFinanceVersion': '', 'modifiedTime': None, 'assetItemDrivingLicenseInfo': None, 'createdTime': None, 'previousAssetItemId': None, 'step': 2, 'assetItemCustomerInfo': None, 'deleted': None, 'propertyList': [{'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyCode': 'customerTelephone', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '61', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '9632', 'propertyCode': 'borrowAmount', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '100', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyCode': 'rateMethod', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '194', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1', 'propertyCode': 'repaymentWay', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '177', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '3', 'propertyCode': 'repaymentDuration', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '308', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '219', 'propertyCode': 'financeProductId', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '171', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'customerSource', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '307', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'chedyt1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '20264', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyCode': 'customerName', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '174', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyCode': 'idCard', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '214', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '的撒', 'propertyCode': 'domicilePlace', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '215', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '汉', 'propertyCode': 'nation', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '218', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '男', 'propertyCode': 'sex', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '217', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyCode': 'chusrq1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10186', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyCode': 'cardValidPeriodEnd', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '216', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyCode': 'idCardFrontPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10319', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyCode': 'idCardBackPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10320', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyCode': 'xingszsy1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '236', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}], 'creator': None, 'taskId': None, 'modifier': None}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>72790</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'id': '72790', 'version': None, 'taskId': None, 'item': None, 'assetItemDrivingLicenseInfo': None, 'modifier': None, 'assetItemCustomerInfo': None, 'type': 1, 'creator': None, 'previousAssetItemId': None, 'assetItemTelephoneVerifyInfo': None, 'assetId': '22', 'businessType': 5, 'deleted': None, 'modifiedTime': None, 'assetInFinanceVersion': '', 'step': 2, 'propertyList': [{'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '61', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerTelephone', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '18514593476', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '100', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'borrowAmount', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '9632', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '194', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'rateMethod', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '177', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentWay', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '308', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentDuration', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '3', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '171', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'financeProductId', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '219', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '307', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerSource', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '20264', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chedyt1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '174', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerName', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '214', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCard', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '215', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'domicilePlace', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '的撒', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '218', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'nation', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '汉', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '217', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'sex', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '男', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10186', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chusrq1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '216', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'cardValidPeriodEnd', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10319', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardFrontPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10320', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardBackPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '236', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'xingszsy1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}]}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_XZJJ_016</t>
@@ -617,10 +608,10 @@
     <t>2</t>
   </si>
   <si>
-    <t>72607</t>
-  </si>
-  <si>
-    <t>{'data': {'businessType': 5, 'id': '72607', 'assetItemTelephoneVerifyInfo': None, 'type': 1, 'version': None, 'item': None, 'assetId': '23', 'assetInFinanceVersion': '', 'modifiedTime': None, 'assetItemDrivingLicenseInfo': None, 'createdTime': None, 'previousAssetItemId': None, 'step': 2, 'assetItemCustomerInfo': None, 'deleted': None, 'propertyList': [{'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '13296747005', 'propertyCode': 'customerTelephone', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '61', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '9633', 'propertyCode': 'borrowAmount', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '100', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyCode': 'rateMethod', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '194', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1', 'propertyCode': 'repaymentWay', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '177', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '3', 'propertyCode': 'repaymentDuration', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '308', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '214', 'propertyCode': 'financeProductId', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '171', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'customerSource', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '307', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'chedyt1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '20264', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyCode': 'customerName', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '174', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyCode': 'idCard', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '214', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '的撒', 'propertyCode': 'domicilePlace', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '215', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '汉', 'propertyCode': 'nation', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '218', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '男', 'propertyCode': 'sex', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '217', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyCode': 'chusrq1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10186', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyCode': 'cardValidPeriodEnd', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '216', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyCode': 'idCardFrontPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10319', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyCode': 'idCardBackPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10320', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyCode': 'xingszsy1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '236', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}], 'creator': None, 'taskId': None, 'modifier': None}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>72791</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'id': '72791', 'version': None, 'taskId': None, 'item': None, 'assetItemDrivingLicenseInfo': None, 'modifier': None, 'assetItemCustomerInfo': None, 'type': 1, 'creator': None, 'previousAssetItemId': None, 'assetItemTelephoneVerifyInfo': None, 'assetId': '23', 'businessType': 5, 'deleted': None, 'modifiedTime': None, 'assetInFinanceVersion': '', 'step': 2, 'propertyList': [{'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '61', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerTelephone', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '13296747005', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '100', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'borrowAmount', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '9633', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '194', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'rateMethod', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': 'qs_y', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '177', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentWay', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '308', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentDuration', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '3', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '171', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'financeProductId', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '214', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '307', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerSource', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '20264', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chedyt1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '174', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerName', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '214', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCard', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '215', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'domicilePlace', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '的撒', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '218', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'nation', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '汉', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '217', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'sex', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '男', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10186', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chusrq1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '216', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'cardValidPeriodEnd', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10319', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardFrontPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10320', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardBackPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '236', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'xingszsy1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}]}, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_XZJJ_017</t>
@@ -635,10 +626,10 @@
     <t>215</t>
   </si>
   <si>
-    <t>72608</t>
-  </si>
-  <si>
-    <t>{'data': {'businessType': 5, 'id': '72608', 'assetItemTelephoneVerifyInfo': None, 'type': 1, 'version': None, 'item': None, 'assetId': '23', 'assetInFinanceVersion': '', 'modifiedTime': None, 'assetItemDrivingLicenseInfo': None, 'createdTime': None, 'previousAssetItemId': None, 'step': 2, 'assetItemCustomerInfo': None, 'deleted': None, 'propertyList': [{'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '13296747005', 'propertyCode': 'customerTelephone', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '61', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '9634', 'propertyCode': 'borrowAmount', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '100', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': 'qs_t', 'propertyCode': 'rateMethod', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '194', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '3', 'propertyCode': 'repaymentWay', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '177', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '15', 'propertyCode': 'repaymentDuration', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '308', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '215', 'propertyCode': 'financeProductId', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '171', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'customerSource', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '307', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '', 'propertyCode': 'chedyt1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '20264', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyCode': 'customerName', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '174', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyCode': 'idCard', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '214', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '的撒', 'propertyCode': 'domicilePlace', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '215', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '汉', 'propertyCode': 'nation', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '218', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '男', 'propertyCode': 'sex', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '217', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyCode': 'chusrq1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10186', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyCode': 'cardValidPeriodEnd', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '216', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyCode': 'idCardFrontPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10319', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyCode': 'idCardBackPicture', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '10320', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}, {'availableTagValueList': [], 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyCode': 'xingszsy1', 'groupName': None, 'assetItemId': None, 'inputOutputFlag': None, 'propertyUseMethod': None, 'markStatus': None, 'groupId': None, 'outputCanEdit': None, 'propertyOrdinal': None, 'groupOrdinal': None, 'propertyName': None, 'propertyId': '236', 'inputMarkAllowed': None, 'keyFlag': None, 'propertyRealValue': None, 'propertySpecialConfig': None, 'outputRequiredFlag': None}], 'creator': None, 'taskId': None, 'modifier': None}, 'message': '', 'code': '0', 'success': True}</t>
+    <t>72792</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': {'createdTime': None, 'id': '72792', 'version': None, 'taskId': None, 'item': None, 'assetItemDrivingLicenseInfo': None, 'modifier': None, 'assetItemCustomerInfo': None, 'type': 1, 'creator': None, 'previousAssetItemId': None, 'assetItemTelephoneVerifyInfo': None, 'assetId': '23', 'businessType': 5, 'deleted': None, 'modifiedTime': None, 'assetInFinanceVersion': '', 'step': 2, 'propertyList': [{'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '61', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerTelephone', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '13296747005', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '100', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'borrowAmount', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '9634', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '194', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'rateMethod', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': 'qs_t', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '177', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentWay', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '3', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '308', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'repaymentDuration', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '15', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '171', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'financeProductId', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '215', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '307', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerSource', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '20264', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chedyt1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '174', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'customerName', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '吴先生', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '214', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCard', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '110101199003074231', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '215', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'domicilePlace', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '的撒', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '218', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'nation', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '汉', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '217', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'sex', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '男', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10186', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'chusrq1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '1983-11-21', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '216', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'cardValidPeriodEnd', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["2018-11-05","2018-12-14"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10319', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardFrontPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428878999190.7695617701690018.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '10320', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'idCardBackPicture', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15428879030960.11580892072857041.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}, {'groupName': None, 'outputCanEdit': None, 'propertyUseMethod': None, 'inputOutputFlag': None, 'availableTagValueList': [], 'keyFlag': None, 'markStatus': None, 'assetItemId': None, 'propertyId': '236', 'outputRequiredFlag': None, 'inputMarkAllowed': None, 'groupId': None, 'propertyCode': 'xingszsy1', 'groupOrdinal': None, 'propertyInputType': None, 'propertyValue': '["http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15433205397830.7983244780280092.jpg"]', 'propertyRealValue': None, 'propertySpecialConfig': None, 'propertyName': None, 'propertyOrdinal': None}]}, 'message': ''}</t>
   </si>
   <si>
     <t>借款人性质</t>
@@ -704,10 +695,10 @@
     <t>[{\"nameOfBorrower\":\"卢文人\",\"idCardOfBorrower\":\"110101199003074370\",\"validPeriodOfBorrowerIdCard\":\"[\\\"2018-12-17\\\",\\\"2019-01-22\\\"]\",\"phoneOfBorrower\":\"13256714578\",\"frontPhotoOfBorrowerIdCard\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450348466010.2040742258491941.jpg\\\"]\",\"reversePhotoOfBorrowerIdCard\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450348506100.021807664806680505.jpg\\\"]\",\"relationOfContacts\":1,\"nameOfContacts\":\"发广告\",\"phoneOfContacts\":\"15623456254\",\"amountOfLoanApply\":\"9600\",\"vehicleTypeByStages\":\"大众\",\"excelOfLoanApply\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450349029570.17188913977529086.png\\\"]\"},{\"nameOfBorrower\":\"向上走\",\"idCardOfBorrower\":\"110101199003074370\",\"validPeriodOfBorrowerIdCard\":\"[\\\"2018-12-17\\\",\\\"2019-01-22\\\"]\",\"phoneOfBorrower\":\"13256714578\",\"frontPhotoOfBorrowerIdCard\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450348466010.2040742258491941.jpg\\\"]\",\"reversePhotoOfBorrowerIdCard\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450348506100.021807664806680505.jpg\\\"]\",\"relationOfContacts\":1,\"nameOfContacts\":\"发广告\",\"phoneOfContacts\":\"15623456254\",\"amountOfLoanApply\":\"9600\",\"vehicleTypeByStages\":\"奔驰\",\"excelOfLoanApply\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450349029570.17188913977529086.png\\\"]\"},{\"nameOfBorrower\":\"叶问\",\"idCardOfBorrower\":\"110101199003074370\",\"validPeriodOfBorrowerIdCard\":\"[\\\"2018-12-17\\\",\\\"2019-01-22\\\"]\",\"phoneOfBorrower\":\"13256714578\",\"frontPhotoOfBorrowerIdCard\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450348466010.2040742258491941.jpg\\\"]\",\"reversePhotoOfBorrowerIdCard\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450348506100.021807664806680505.jpg\\\"]\",\"relationOfContacts\":1,\"nameOfContacts\":\"发广告\",\"phoneOfContacts\":\"15623456254\",\"amountOfLoanApply\":\"9600\",\"vehicleTypeByStages\":\"保时捷\",\"excelOfLoanApply\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450349029570.17188913977529086.png\\\"]\"}]</t>
   </si>
   <si>
-    <t>72627</t>
-  </si>
-  <si>
-    <t>{'code': '0', 'message': '', 'data': True, 'success': True}</t>
+    <t>72765</t>
+  </si>
+  <si>
+    <t>{'success': True, 'code': '0', 'data': True, 'message': ''}</t>
   </si>
   <si>
     <t>ZGXT_TJFKXX_002</t>
@@ -725,7 +716,7 @@
     <t>87</t>
   </si>
   <si>
-    <t>72628</t>
+    <t>72766</t>
   </si>
   <si>
     <t>ZGXT_TJFKXX_003</t>
@@ -737,7 +728,7 @@
     <t>88</t>
   </si>
   <si>
-    <t>72629</t>
+    <t>72767</t>
   </si>
   <si>
     <t>ZGXT_TJFKXX_004</t>
@@ -752,7 +743,7 @@
     <t>[{\"nameOfBorrower\":\"卢文人\",\"idCardOfBorrower\":\"110101199003074370\",\"validPeriodOfBorrowerIdCard\":\"[\\\"2018-12-17\\\",\\\"2019-01-22\\\"]\",\"phoneOfBorrower\":\"13256714578\",\"frontPhotoOfBorrowerIdCard\":\"[\\\"http://ycd363.oss-cn-hzfinance.ayuncs.com/asset/daily/workflowproperty/15450348466010.2040742258491941.jpg\\\"]\",\"reversePhotoOfBorrowerIdCard\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450348506100.021807664806680505.jpg\\\"]\",\"relationOfContacts\":1,\"nameOfContacts\":\"发广告\",\"phoneOfContacts\":\"15623456254\",\"amountOfLoanApply\":\"9600\",\"vehicleTypeByStages\":\"大众\",\"excelOfLoanApply\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450349029570.17188913977529086.png\\\"]\"}]_x0000__xFFFF_</t>
   </si>
   <si>
-    <t>72630</t>
+    <t>72768</t>
   </si>
   <si>
     <t>ZGXT_TJFKXX_005</t>
@@ -767,7 +758,7 @@
     <t>[{\"nameOfBorrower\":\"卢文人\",\"idCardOfBorrower\":\"110101199003074370\",\"validPeriodOfBorrowerIdCard\":\"[\\\"2018-12-17\\\",\\\"2019-01-22\\\"]\",\"phoneOfBorrower\":\"13256714578\",\"frontPhotoOfBorrowerIdCard\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450348466010.2040742258491941.jpg\\\"]\",\"reversePhotoOfBorrowerIdCard\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450348506100.021807664806680505.jpg\\\"]\",\"relationOfContacts\":1,\"nameOfContacts\":\"发广告\",\"phoneOfContacts\":\"15623456254\",\"amountOfLoanApply\":\"9600\",\"vehicleTypeByStages\":\"大众\",\"excelOfLoanApply\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450349029570.17188913977529086.png\\\"]\"},{\"nameOfBorrower\":\"向上走\",\"idCardOfBorrower\":\"110101199003074370\",\"validPeriodOfBorrowerIdCard\":\"[\\\"2018-12-17\\\",\\\"2019-01-22\\\"]\",\"phoneOfBorrower\":\"13256714578\",\"frontPhotoOfBorrowerIdCard\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450348466010.2040742258491941.jpg\\\"]\",\"reversePhotoOfBorrowerIdCard\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450348506100.021807664806680505.jpg\\\"]\",\"relationOfContacts\":1,\"nameOfContacts\":\"发广告\",\"phoneOfContacts\":\"15623456254\",\"amountOfLoanApply\":\"9600\",\"vehicleTypeByStages\":\"奔驰\",\"excelOfLoanApply\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450349029570.17188913977529086.png\\\"]\"}]</t>
   </si>
   <si>
-    <t>72631</t>
+    <t>72769</t>
   </si>
   <si>
     <t>ZGXT_TJFKXX_006</t>
@@ -779,7 +770,7 @@
     <t>91</t>
   </si>
   <si>
-    <t>72632</t>
+    <t>72770</t>
   </si>
   <si>
     <t>ZGXT_TJFKXX_007</t>
@@ -791,7 +782,7 @@
     <t>92</t>
   </si>
   <si>
-    <t>72633</t>
+    <t>72771</t>
   </si>
   <si>
     <t>ZGXT_TJFKXX_008</t>
@@ -806,7 +797,7 @@
     <t>[{\"nameOfBorrower\":\"卢文人\",\"idCardOfBorrower\":\"110101199003074370\",\"validPeriodOfBorrowerIdCard\":\"[\\\"2018-12-17\\\",\\\"2019-01-22\\\"]\",\"phoneOfBorrower\":\"13256714578\",\"frontPhotoOfBorrowerIdCard\":\"[\\\"http://ycd367.oss-cn-hzfinance.ayuncs.com/asset/daily/workflowproperty/15450348466010.2040742258491941.jpg\\\"]\",\"reversePhotoOfBorrowerIdCard\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450348506100.021807664806680505.jpg\\\"]\",\"relationOfContacts\":1,\"nameOfContacts\":\"发广告\",\"phoneOfContacts\":\"15623456254\",\"amountOfLoanApply\":\"9600\",\"vehicleTypeByStages\":\"大众\",\"excelOfLoanApply\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450349029570.17188913977529086.png\\\"]\"}]_x0000__xFFFF_</t>
   </si>
   <si>
-    <t>72634</t>
+    <t>72772</t>
   </si>
   <si>
     <t>ZGXT_TJFKXX_009</t>
@@ -821,10 +812,7 @@
     <t>[{\"nameOfBorrower\":\"卢文人\",\"idCardOfBorrower\":\"110101199003074370\",\"validPeriodOfBorrowerIdCard\":\"[\\\"2018-12-17\\\",\\\"2019-01-22\\\"]\",\"phoneOfBorrower\":\"13256714578\",\"frontPhotoOfBorrowerIdCard\":\"[\\\"http://ycd368.oss-cn-hzfinance.ayuncs.com/asset/daily/workflowproperty/15450348466010.2040742258491941.jpg\\\"]\",\"reversePhotoOfBorrowerIdCard\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450348506100.021807664806680505.jpg\\\"]\",\"relationOfContacts\":1,\"nameOfContacts\":\"发广告\",\"phoneOfContacts\":\"15623456254\",\"amountOfLoanApply\":\"9600\",\"vehicleTypeByStages\":\"大众\",\"excelOfLoanApply\":\"[\\\"http://ycd360.oss-cn-hzfinance.aliyuncs.com/asset/daily/workflowproperty/15450349029570.17188913977529086.png\\\"]\"}]_x0000__xFFFF_</t>
   </si>
   <si>
-    <t>72635</t>
-  </si>
-  <si>
-    <t>{'data': True, 'message': '', 'success': True, 'code': '0'}</t>
+    <t>72773</t>
   </si>
   <si>
     <t>ZGXT_TJFKXX_010</t>
@@ -836,7 +824,7 @@
     <t>95</t>
   </si>
   <si>
-    <t>72625</t>
+    <t>72774</t>
   </si>
   <si>
     <t>ZGXT_TJFKXX_011</t>
@@ -848,7 +836,7 @@
     <t>96</t>
   </si>
   <si>
-    <t>72626</t>
+    <t>72775</t>
   </si>
   <si>
     <t>风控审核结果</t>
@@ -884,10 +872,7 @@
     <t>我是备注</t>
   </si>
   <si>
-    <t>72651</t>
-  </si>
-  <si>
-    <t>{'message': '', 'data': True, 'code': '0', 'success': True}</t>
+    <t>72793</t>
   </si>
   <si>
     <t>ZGXT_FKSH_002</t>
@@ -908,7 +893,7 @@
     <t>长的太帅</t>
   </si>
   <si>
-    <t>72652</t>
+    <t>72794</t>
   </si>
   <si>
     <t>ZGXT_FKSH_003</t>
@@ -926,7 +911,7 @@
     <t>9671</t>
   </si>
   <si>
-    <t>72653</t>
+    <t>72795</t>
   </si>
   <si>
     <t>ZGXT_FKSH_004</t>
@@ -935,7 +920,7 @@
     <t>验证：准借金额等于借款金额</t>
   </si>
   <si>
-    <t>72654</t>
+    <t>72796</t>
   </si>
   <si>
     <t>ZGXT_FKSH_005</t>
@@ -950,7 +935,7 @@
     <t>5674</t>
   </si>
   <si>
-    <t>72655</t>
+    <t>72797</t>
   </si>
   <si>
     <t>ZGXT_FKSH_006</t>
@@ -965,7 +950,7 @@
     <t>5675</t>
   </si>
   <si>
-    <t>72656</t>
+    <t>72798</t>
   </si>
   <si>
     <t>ZGXT_FKSH_007</t>
@@ -980,7 +965,7 @@
     <t>5676</t>
   </si>
   <si>
-    <t>72657</t>
+    <t>72799</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1042,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1067,6 +1052,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="4" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1366,10 +1352,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1380,8 +1366,8 @@
     <col customWidth="1" max="7" min="7" style="6" width="16.875"/>
     <col customWidth="1" max="8" min="8" style="6" width="8.375"/>
     <col customWidth="1" max="9" min="9" style="6" width="9.5"/>
-    <col customWidth="1" max="33" min="10" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="34" style="6" width="9"/>
+    <col customWidth="1" max="35" min="10" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="36" style="6" width="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1406,13 +1392,13 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1542,246 +1528,6 @@
       </c>
       <c r="J5" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="J11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="J14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="I15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="H16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="J17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="I18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="J20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="I21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="H22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="J23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="I24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="J26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="I27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="H28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="J29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="I30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="J32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="I33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="H34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="J35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="I36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="H37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="J38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="I39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="H40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="J41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="I42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="H43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="J44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="I45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="H46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="J47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="I48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="H49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="J50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="I51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="H52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="J53" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1545,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H1" sqref="H1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1809,8 +1555,8 @@
     <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="12.75"/>
     <col customWidth="1" max="6" min="6" style="7" width="18.625"/>
     <col customWidth="1" max="7" min="7" style="7" width="10.5"/>
-    <col customWidth="1" max="25" min="8" style="7" width="9"/>
-    <col customWidth="1" max="16384" min="26" style="7" width="9"/>
+    <col customWidth="1" max="27" min="8" style="7" width="9"/>
+    <col customWidth="1" max="16384" min="28" style="7" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="4" spans="1:10">
@@ -1833,30 +1579,30 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>15</v>
@@ -1865,7 +1611,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -1874,21 +1620,21 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>15</v>
@@ -1897,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -1906,21 +1652,21 @@
         <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>15</v>
@@ -1929,7 +1675,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -1938,21 +1684,21 @@
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>15</v>
@@ -1961,7 +1707,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -1970,21 +1716,21 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -1993,7 +1739,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
         <v>17</v>
@@ -2002,21 +1748,21 @@
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>15</v>
@@ -2025,7 +1771,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -2034,21 +1780,21 @@
         <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>15</v>
@@ -2057,7 +1803,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
@@ -2066,7 +1812,7 @@
         <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +1829,7 @@
   </sheetPr>
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -2105,8 +1851,8 @@
     <col customWidth="1" max="24" min="24" style="7" width="11.125"/>
     <col customWidth="1" max="26" min="25" style="7" width="9"/>
     <col customWidth="1" max="27" min="27" style="7" width="11.75"/>
-    <col customWidth="1" max="45" min="28" style="7" width="9"/>
-    <col customWidth="1" max="16384" min="46" style="7" width="9"/>
+    <col customWidth="1" max="47" min="28" style="7" width="9"/>
+    <col customWidth="1" max="16384" min="48" style="7" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="4" spans="1:28">
@@ -2126,61 +1872,61 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="Y1" s="8" t="s">
         <v>7</v>
@@ -2189,7 +1935,7 @@
         <v>8</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AB1" s="8" t="s">
         <v>9</v>
@@ -2197,13 +1943,13 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>15</v>
@@ -2212,61 +1958,61 @@
         <v>16</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Y2" s="7" t="s">
         <v>17</v>
@@ -2275,21 +2021,21 @@
         <v>18</v>
       </c>
       <c r="AA2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AB2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
@@ -2298,61 +2044,61 @@
         <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="L3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="N3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Y3" s="7" t="s">
         <v>17</v>
@@ -2361,21 +2107,21 @@
         <v>18</v>
       </c>
       <c r="AA3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AB3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>15</v>
@@ -2384,61 +2130,61 @@
         <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="R4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="V4" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="W4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="X4" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Y4" s="7" t="s">
         <v>17</v>
@@ -2447,21 +2193,21 @@
         <v>18</v>
       </c>
       <c r="AA4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AB4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>15</v>
@@ -2470,61 +2216,61 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="R5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="S5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="U5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="V5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="W5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="X5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Y5" s="7" t="s">
         <v>17</v>
@@ -2533,21 +2279,21 @@
         <v>18</v>
       </c>
       <c r="AA5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AB5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>15</v>
@@ -2556,61 +2302,61 @@
         <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="R6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="S6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="T6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="U6" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="V6" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="W6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="X6" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Y6" s="7" t="s">
         <v>17</v>
@@ -2619,21 +2365,21 @@
         <v>18</v>
       </c>
       <c r="AA6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AB6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>15</v>
@@ -2642,61 +2388,61 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="N7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="R7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="S7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="T7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="U7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="V7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="W7" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="X7" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Y7" s="7" t="s">
         <v>17</v>
@@ -2705,21 +2451,21 @@
         <v>18</v>
       </c>
       <c r="AA7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AB7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>15</v>
@@ -2728,61 +2474,61 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="O8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="R8" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="S8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="T8" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="U8" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="V8" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="W8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="X8" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Y8" s="7" t="s">
         <v>17</v>
@@ -2791,21 +2537,21 @@
         <v>18</v>
       </c>
       <c r="AA8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AB8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>15</v>
@@ -2814,61 +2560,61 @@
         <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="R9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="S9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="T9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="U9" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="V9" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="W9" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="X9" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Y9" s="7" t="s">
         <v>17</v>
@@ -2877,21 +2623,21 @@
         <v>18</v>
       </c>
       <c r="AA9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AB9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>15</v>
@@ -2900,61 +2646,61 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="R10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="S10" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="T10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="U10" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="V10" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="W10" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="X10" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Y10" s="7" t="s">
         <v>17</v>
@@ -2963,21 +2709,21 @@
         <v>18</v>
       </c>
       <c r="AA10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AB10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>15</v>
@@ -2986,61 +2732,61 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="R11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="S11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="T11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="U11" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="V11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="W11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="X11" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Y11" s="7" t="s">
         <v>17</v>
@@ -3049,21 +2795,21 @@
         <v>18</v>
       </c>
       <c r="AA11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AB11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>15</v>
@@ -3072,61 +2818,61 @@
         <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="R12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="S12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="T12" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="U12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="V12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="W12" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U12" s="7" t="s">
+      <c r="X12" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Y12" s="7" t="s">
         <v>17</v>
@@ -3135,21 +2881,21 @@
         <v>18</v>
       </c>
       <c r="AA12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AB12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>15</v>
@@ -3158,61 +2904,61 @@
         <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="N13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="O13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="R13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="S13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="T13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="U13" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="V13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="W13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U13" s="7" t="s">
+      <c r="X13" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Y13" s="7" t="s">
         <v>17</v>
@@ -3221,21 +2967,21 @@
         <v>18</v>
       </c>
       <c r="AA13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>15</v>
@@ -3244,61 +2990,61 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="R14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="S14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="T14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="U14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="V14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="W14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U14" s="7" t="s">
+      <c r="X14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Y14" s="7" t="s">
         <v>17</v>
@@ -3307,21 +3053,21 @@
         <v>18</v>
       </c>
       <c r="AA14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AB14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>15</v>
@@ -3330,61 +3076,61 @@
         <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="R15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="S15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="T15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="U15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="V15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T15" s="7" t="s">
+      <c r="W15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U15" s="7" t="s">
+      <c r="X15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Y15" s="7" t="s">
         <v>17</v>
@@ -3393,21 +3139,21 @@
         <v>18</v>
       </c>
       <c r="AA15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AB15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>15</v>
@@ -3416,61 +3162,61 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="S16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="T16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="U16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="V16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="W16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U16" s="7" t="s">
+      <c r="X16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="V16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Y16" s="7" t="s">
         <v>17</v>
@@ -3479,21 +3225,21 @@
         <v>18</v>
       </c>
       <c r="AA16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AB16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>15</v>
@@ -3502,61 +3248,61 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="S17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="T17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="U17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="V17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="W17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U17" s="7" t="s">
+      <c r="X17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Y17" s="7" t="s">
         <v>17</v>
@@ -3565,21 +3311,21 @@
         <v>18</v>
       </c>
       <c r="AA17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AB17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>15</v>
@@ -3588,61 +3334,61 @@
         <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="O18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="R18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="S18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="T18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="U18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="V18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="W18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="U18" s="7" t="s">
+      <c r="X18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X18" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Y18" s="7" t="s">
         <v>17</v>
@@ -3651,10 +3397,10 @@
         <v>18</v>
       </c>
       <c r="AA18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AB18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3671,8 +3417,8 @@
   </sheetPr>
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -3703,8 +3449,8 @@
     <col customWidth="1" max="27" min="27" style="7" width="11.125"/>
     <col customWidth="1" max="28" min="28" style="7" width="12.125"/>
     <col customWidth="1" max="30" min="29" style="7" width="9"/>
-    <col customWidth="1" max="45" min="32" style="7" width="9"/>
-    <col customWidth="1" max="16384" min="46" style="7" width="9"/>
+    <col customWidth="1" max="47" min="32" style="7" width="9"/>
+    <col customWidth="1" max="16384" min="48" style="7" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="4" spans="1:28">
@@ -3724,84 +3470,84 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AA1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>15</v>
@@ -3810,58 +3556,58 @@
         <v>16</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="L2" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="S2" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="X2" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="7" t="s">
         <v>17</v>
@@ -3870,21 +3616,21 @@
         <v>18</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AB2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
@@ -3893,52 +3639,52 @@
         <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="K3" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Y3" s="7" t="s">
         <v>17</v>
@@ -3947,21 +3693,21 @@
         <v>18</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AB3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>15</v>
@@ -3970,52 +3716,52 @@
         <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Y4" s="7" t="s">
         <v>17</v>
@@ -4024,21 +3770,21 @@
         <v>18</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AB4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>15</v>
@@ -4047,52 +3793,52 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Y5" s="7" t="s">
         <v>17</v>
@@ -4101,21 +3847,21 @@
         <v>18</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AB5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>15</v>
@@ -4124,52 +3870,52 @@
         <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Y6" s="7" t="s">
         <v>17</v>
@@ -4178,21 +3924,21 @@
         <v>18</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AB6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>15</v>
@@ -4201,58 +3947,58 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="R7" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="N7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="S7" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Y7" s="7" t="s">
         <v>17</v>
@@ -4261,21 +4007,21 @@
         <v>18</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AB7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>15</v>
@@ -4284,58 +4030,58 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="R8" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="N8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="S8" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Y8" s="7" t="s">
         <v>17</v>
@@ -4344,21 +4090,21 @@
         <v>18</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AB8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>15</v>
@@ -4367,52 +4113,52 @@
         <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Y9" s="7" t="s">
         <v>17</v>
@@ -4421,21 +4167,21 @@
         <v>18</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AB9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>15</v>
@@ -4444,58 +4190,58 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="R10" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="N10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="S10" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Y10" s="7" t="s">
         <v>17</v>
@@ -4504,21 +4250,21 @@
         <v>18</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AB10" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>15</v>
@@ -4527,58 +4273,58 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="R11" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="N11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="S11" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Y11" s="7" t="s">
         <v>17</v>
@@ -4587,21 +4333,21 @@
         <v>18</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AB11" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>15</v>
@@ -4610,58 +4356,58 @@
         <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="R12" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="N12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q12" s="7" t="s">
+      <c r="S12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="W12" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="R12" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="X12" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Y12" s="7" t="s">
         <v>17</v>
@@ -4670,10 +4416,10 @@
         <v>18</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AB12" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4699,8 +4445,8 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -4719,8 +4465,8 @@
     <col customWidth="1" max="27" min="23" style="7" width="13"/>
     <col customWidth="1" max="28" min="28" style="7" width="9"/>
     <col customWidth="1" max="29" min="29" style="7" width="12.125"/>
-    <col customWidth="1" max="46" min="30" style="7" width="9"/>
-    <col customWidth="1" max="16384" min="47" style="7" width="9"/>
+    <col customWidth="1" max="48" min="30" style="7" width="9"/>
+    <col customWidth="1" max="16384" min="49" style="7" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="4" spans="1:31">
@@ -4740,93 +4486,93 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="X1" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AC1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>15</v>
@@ -4835,87 +4581,87 @@
         <v>16</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="L2" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="S2" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="X2" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AC2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AD2" t="s">
         <v>18</v>
       </c>
       <c r="AE2" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
@@ -4924,90 +4670,90 @@
         <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="L3" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q3" s="7" t="s">
+      <c r="S3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="W3" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="X3" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AB3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AC3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AD3" t="s">
         <v>18</v>
       </c>
       <c r="AE3" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>15</v>
@@ -5016,87 +4762,87 @@
         <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q4" s="7" t="s">
+      <c r="S4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="W4" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="R4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="X4" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AB4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AC4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AD4" t="s">
         <v>18</v>
       </c>
       <c r="AE4" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>15</v>
@@ -5105,87 +4851,87 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q5" s="7" t="s">
+      <c r="S5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="W5" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="R5" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="X5" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AB5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AC5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AD5" t="s">
         <v>18</v>
       </c>
       <c r="AE5" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>15</v>
@@ -5194,81 +4940,81 @@
         <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="K6" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AB6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AC6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AD6" t="s">
         <v>18</v>
       </c>
       <c r="AE6" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>15</v>
@@ -5277,81 +5023,81 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AB7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AC7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AD7" t="s">
         <v>18</v>
       </c>
       <c r="AE7" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>15</v>
@@ -5360,70 +5106,70 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AB8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AC8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AD8" t="s">
         <v>18</v>
       </c>
       <c r="AE8" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/资管接口.xlsx
+++ b/test_data/资管接口.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="登录" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="切换部门" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="新增进件" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="提交风控信息" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="风控审核" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="登录" sheetId="1" r:id="rId1"/>
+    <sheet name="切换部门" sheetId="2" r:id="rId2"/>
+    <sheet name="新增进件" sheetId="3" r:id="rId3"/>
+    <sheet name="提交风控信息" sheetId="4" r:id="rId4"/>
+    <sheet name="风控审核" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="316">
   <si>
     <t>案例编号</t>
   </si>
@@ -971,27 +971,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1004,7 +1003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.3999755851924192"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,24 +1039,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1347,30 +1352,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="6" width="12.75"/>
-    <col customWidth="1" max="5" min="2" style="6" width="9"/>
-    <col customWidth="1" max="6" min="6" style="7" width="14.25"/>
-    <col customWidth="1" max="7" min="7" style="6" width="16.875"/>
-    <col customWidth="1" max="8" min="8" style="6" width="8.375"/>
-    <col customWidth="1" max="9" min="9" style="6" width="9.5"/>
-    <col customWidth="1" max="35" min="10" style="6" width="9"/>
-    <col customWidth="1" max="16384" min="36" style="6" width="9"/>
+    <col min="1" max="1" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="6" customWidth="1"/>
+    <col min="10" max="36" width="9" style="6" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1531,35 +1532,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="7" width="15"/>
-    <col customWidth="1" max="4" min="2" style="7" width="9"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="12.75"/>
-    <col customWidth="1" max="6" min="6" style="7" width="18.625"/>
-    <col customWidth="1" max="7" min="7" style="7" width="10.5"/>
-    <col customWidth="1" max="27" min="8" style="7" width="9"/>
-    <col customWidth="1" max="16384" min="28" style="7" width="9"/>
+    <col min="1" max="1" width="15" style="7" customWidth="1"/>
+    <col min="2" max="4" width="9" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="7" customWidth="1"/>
+    <col min="8" max="28" width="9" style="7" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="4" spans="1:10">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +1589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -1623,7 +1621,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -1655,7 +1653,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
@@ -1687,7 +1685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
@@ -1719,7 +1717,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>49</v>
       </c>
@@ -1751,7 +1749,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>53</v>
       </c>
@@ -1783,7 +1781,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>57</v>
       </c>
@@ -1816,46 +1814,43 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="7" width="14.375"/>
-    <col customWidth="1" max="2" min="2" style="7" width="9"/>
-    <col customWidth="1" max="3" min="3" style="7" width="17.375"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="12.75"/>
-    <col customWidth="1" max="5" min="5" style="7" width="9.375"/>
-    <col customWidth="1" max="6" min="6" style="7" width="7"/>
-    <col customWidth="1" max="7" min="7" style="7" width="14.125"/>
-    <col customWidth="1" max="8" min="8" style="7" width="13.5"/>
-    <col customWidth="1" max="15" min="9" style="7" width="9"/>
-    <col bestFit="1" customWidth="1" max="16" min="16" style="7" width="20.5"/>
-    <col customWidth="1" max="19" min="17" style="7" width="9"/>
-    <col customWidth="1" max="20" min="20" style="7" width="11.375"/>
-    <col customWidth="1" max="23" min="21" style="7" width="13.125"/>
-    <col customWidth="1" max="24" min="24" style="7" width="11.125"/>
-    <col customWidth="1" max="26" min="25" style="7" width="9"/>
-    <col customWidth="1" max="27" min="27" style="7" width="11.75"/>
-    <col customWidth="1" max="47" min="28" style="7" width="9"/>
-    <col customWidth="1" max="16384" min="48" style="7" width="9"/>
+    <col min="1" max="1" width="14.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="7" customWidth="1"/>
+    <col min="9" max="15" width="9" style="7" customWidth="1"/>
+    <col min="16" max="16" width="20.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="7" customWidth="1"/>
+    <col min="20" max="20" width="11.375" style="7" customWidth="1"/>
+    <col min="21" max="23" width="13.125" style="7" customWidth="1"/>
+    <col min="24" max="24" width="11.125" style="7" customWidth="1"/>
+    <col min="25" max="26" width="9" style="7" customWidth="1"/>
+    <col min="27" max="27" width="11.75" style="7" customWidth="1"/>
+    <col min="28" max="48" width="9" style="7" customWidth="1"/>
+    <col min="49" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="4" spans="1:28">
+    <row r="1" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1941,7 +1936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>80</v>
       </c>
@@ -2027,7 +2022,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>103</v>
       </c>
@@ -2113,7 +2108,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>115</v>
       </c>
@@ -2199,7 +2194,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>122</v>
       </c>
@@ -2285,7 +2280,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>127</v>
       </c>
@@ -2371,7 +2366,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>132</v>
       </c>
@@ -2457,7 +2452,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>140</v>
       </c>
@@ -2543,7 +2538,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>145</v>
       </c>
@@ -2629,7 +2624,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>150</v>
       </c>
@@ -2715,7 +2710,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>155</v>
       </c>
@@ -2801,7 +2796,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>162</v>
       </c>
@@ -2887,7 +2882,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>169</v>
       </c>
@@ -2973,7 +2968,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>174</v>
       </c>
@@ -3059,7 +3054,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>179</v>
       </c>
@@ -3145,7 +3140,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>185</v>
       </c>
@@ -3231,7 +3226,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>191</v>
       </c>
@@ -3275,10 +3270,10 @@
         <v>195</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>93</v>
@@ -3317,7 +3312,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>198</v>
       </c>
@@ -3361,10 +3356,10 @@
         <v>90</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>93</v>
@@ -3404,56 +3399,53 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AB12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="7" width="16.375"/>
-    <col customWidth="1" max="2" min="2" style="7" width="12.875"/>
-    <col customWidth="1" max="3" min="3" style="7" width="16.625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="12.75"/>
-    <col customWidth="1" max="5" min="5" style="7" width="13.875"/>
-    <col customWidth="1" max="6" min="6" style="7" width="9"/>
-    <col customWidth="1" max="7" min="7" style="7" width="11.125"/>
-    <col customWidth="1" max="8" min="8" style="7" width="13.5"/>
-    <col customWidth="1" max="10" min="9" style="7" width="9"/>
-    <col customWidth="1" max="11" min="11" style="7" width="13.125"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="7" width="20.5"/>
-    <col customWidth="1" max="13" min="13" style="7" width="10.75"/>
-    <col customWidth="1" max="14" min="14" style="7" width="14.75"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" style="7" width="21.625"/>
-    <col customWidth="1" max="16" min="16" style="7" width="12.25"/>
-    <col customWidth="1" max="17" min="17" style="7" width="19.625"/>
-    <col bestFit="1" customWidth="1" max="19" min="18" style="7" width="17.25"/>
-    <col customWidth="1" max="20" min="20" style="7" width="7.625"/>
-    <col customWidth="1" max="22" min="21" style="7" width="9"/>
-    <col bestFit="1" customWidth="1" max="23" min="23" style="7" width="11"/>
-    <col customWidth="1" max="24" min="24" style="7" width="11"/>
-    <col customWidth="1" max="25" min="25" style="7" width="9"/>
-    <col bestFit="1" customWidth="1" max="26" min="26" style="7" width="11.125"/>
-    <col customWidth="1" max="27" min="27" style="7" width="11.125"/>
-    <col customWidth="1" max="28" min="28" style="7" width="12.125"/>
-    <col customWidth="1" max="30" min="29" style="7" width="9"/>
-    <col customWidth="1" max="47" min="32" style="7" width="9"/>
-    <col customWidth="1" max="16384" min="48" style="7" width="9"/>
+    <col min="1" max="1" width="16.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="7" customWidth="1"/>
+    <col min="9" max="10" width="9" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="7" customWidth="1"/>
+    <col min="14" max="14" width="14.75" style="7" customWidth="1"/>
+    <col min="15" max="15" width="21.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" style="7" customWidth="1"/>
+    <col min="17" max="17" width="19.625" style="7" customWidth="1"/>
+    <col min="18" max="19" width="17.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.625" style="7" customWidth="1"/>
+    <col min="21" max="22" width="9" style="7" customWidth="1"/>
+    <col min="23" max="23" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" style="7" customWidth="1"/>
+    <col min="25" max="25" width="9" style="7" customWidth="1"/>
+    <col min="26" max="26" width="11.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.125" style="7" customWidth="1"/>
+    <col min="28" max="28" width="12.125" style="7" customWidth="1"/>
+    <col min="29" max="30" width="9" style="7" customWidth="1"/>
+    <col min="32" max="48" width="9" style="7" customWidth="1"/>
+    <col min="49" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="4" spans="1:28">
+    <row r="1" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3539,7 +3531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -3622,7 +3614,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>227</v>
       </c>
@@ -3699,7 +3691,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>233</v>
       </c>
@@ -3776,7 +3768,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>237</v>
       </c>
@@ -3853,7 +3845,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>242</v>
       </c>
@@ -3930,7 +3922,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>247</v>
       </c>
@@ -4013,7 +4005,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>251</v>
       </c>
@@ -4096,7 +4088,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>255</v>
       </c>
@@ -4173,7 +4165,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>260</v>
       </c>
@@ -4256,7 +4248,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>265</v>
       </c>
@@ -4339,7 +4331,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>269</v>
       </c>
@@ -4423,53 +4415,50 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="Y2:Y1048576" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y1048576">
       <formula1>"0-未执行,1-已执行"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="Z2:Z1048576" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z1048576">
       <formula1>"0-执行成功,1-执行失败"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="AA1:AA1048576"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576"/>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="7" width="13.625"/>
-    <col customWidth="1" max="2" min="2" style="7" width="9"/>
-    <col customWidth="1" max="3" min="3" style="7" width="12.875"/>
-    <col customWidth="1" max="4" min="4" style="7" width="12.25"/>
-    <col customWidth="1" max="5" min="5" style="7" width="9"/>
-    <col customWidth="1" max="6" min="6" style="7" width="7.375"/>
-    <col customWidth="1" max="7" min="7" style="7" width="10.5"/>
-    <col customWidth="1" max="8" min="8" style="7" width="12.125"/>
-    <col customWidth="1" max="17" min="9" style="7" width="9"/>
-    <col customWidth="1" max="18" min="18" style="7" width="15.75"/>
-    <col customWidth="1" max="22" min="19" style="7" width="9"/>
-    <col customWidth="1" max="27" min="23" style="7" width="13"/>
-    <col customWidth="1" max="28" min="28" style="7" width="9"/>
-    <col customWidth="1" max="29" min="29" style="7" width="12.125"/>
-    <col customWidth="1" max="48" min="30" style="7" width="9"/>
-    <col customWidth="1" max="16384" min="49" style="7" width="9"/>
+    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="7" customWidth="1"/>
+    <col min="9" max="17" width="9" style="7" customWidth="1"/>
+    <col min="18" max="18" width="15.75" style="7" customWidth="1"/>
+    <col min="19" max="22" width="9" style="7" customWidth="1"/>
+    <col min="23" max="27" width="13" style="7" customWidth="1"/>
+    <col min="28" max="28" width="9" style="7" customWidth="1"/>
+    <col min="29" max="29" width="12.125" style="7" customWidth="1"/>
+    <col min="30" max="49" width="9" style="7" customWidth="1"/>
+    <col min="50" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="4" spans="1:31">
+    <row r="1" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4564,7 +4553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>277</v>
       </c>
@@ -4653,7 +4642,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>285</v>
       </c>
@@ -4745,7 +4734,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>292</v>
       </c>
@@ -4834,7 +4823,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>298</v>
       </c>
@@ -4923,7 +4912,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>301</v>
       </c>
@@ -5006,7 +4995,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>306</v>
       </c>
@@ -5089,7 +5078,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>311</v>
       </c>
@@ -5173,12 +5162,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="AB2:AC8" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AB2:AC8">
       <formula1>"0-未执行,1-已执行"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/test_data/资管接口.xlsx
+++ b/test_data/资管接口.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="登录" sheetId="1" r:id="rId1"/>
-    <sheet name="切换部门" sheetId="2" r:id="rId2"/>
-    <sheet name="新增进件" sheetId="3" r:id="rId3"/>
-    <sheet name="提交风控信息" sheetId="4" r:id="rId4"/>
-    <sheet name="风控审核" sheetId="5" r:id="rId5"/>
+    <sheet name="登录" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="切换部门" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="新增进件" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="提交风控信息" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="风控审核" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="321">
   <si>
     <t>案例编号</t>
   </si>
@@ -872,7 +872,10 @@
     <t>我是备注</t>
   </si>
   <si>
-    <t>72793</t>
+    <t>72803</t>
+  </si>
+  <si>
+    <t>{'success': True, 'message': '', 'code': '0', 'data': True}</t>
   </si>
   <si>
     <t>ZGXT_FKSH_002</t>
@@ -893,7 +896,7 @@
     <t>长的太帅</t>
   </si>
   <si>
-    <t>72794</t>
+    <t>72804</t>
   </si>
   <si>
     <t>ZGXT_FKSH_003</t>
@@ -911,7 +914,7 @@
     <t>9671</t>
   </si>
   <si>
-    <t>72795</t>
+    <t>72805</t>
   </si>
   <si>
     <t>ZGXT_FKSH_004</t>
@@ -920,7 +923,7 @@
     <t>验证：准借金额等于借款金额</t>
   </si>
   <si>
-    <t>72796</t>
+    <t>72806</t>
   </si>
   <si>
     <t>ZGXT_FKSH_005</t>
@@ -935,7 +938,7 @@
     <t>5674</t>
   </si>
   <si>
-    <t>72797</t>
+    <t>72807</t>
   </si>
   <si>
     <t>ZGXT_FKSH_006</t>
@@ -950,7 +953,7 @@
     <t>5675</t>
   </si>
   <si>
-    <t>72798</t>
+    <t>72808</t>
   </si>
   <si>
     <t>ZGXT_FKSH_007</t>
@@ -965,32 +968,45 @@
     <t>5676</t>
   </si>
   <si>
-    <t>72799</t>
+    <t>72815</t>
+  </si>
+  <si>
+    <t>{'message': '', 'code': '0', 'data': True, 'success': True}</t>
+  </si>
+  <si>
+    <t>ZGXT_FKSH_008</t>
+  </si>
+  <si>
+    <t>验证：金融产品为未对接金融产品</t>
+  </si>
+  <si>
+    <t>72816</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1003,7 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,30 +1055,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1352,26 +1362,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="6" customWidth="1"/>
-    <col min="10" max="36" width="9" style="6" customWidth="1"/>
-    <col min="37" max="16384" width="9" style="6"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="6" width="12.75"/>
+    <col customWidth="1" max="5" min="2" style="6" width="9"/>
+    <col customWidth="1" max="6" min="6" style="7" width="14.25"/>
+    <col customWidth="1" max="7" min="7" style="6" width="16.875"/>
+    <col customWidth="1" max="8" min="8" style="6" width="8.375"/>
+    <col customWidth="1" max="9" min="9" style="6" width="9.5"/>
+    <col customWidth="1" max="36" min="10" style="6" width="9"/>
+    <col customWidth="1" max="16384" min="37" style="6" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1435,7 +1449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1467,7 +1481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1499,7 +1513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1532,32 +1546,35 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15" style="7" customWidth="1"/>
-    <col min="2" max="4" width="9" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="7" customWidth="1"/>
-    <col min="8" max="28" width="9" style="7" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="7"/>
+    <col customWidth="1" max="1" min="1" style="7" width="15"/>
+    <col customWidth="1" max="4" min="2" style="7" width="9"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="12.75"/>
+    <col customWidth="1" max="6" min="6" style="7" width="18.625"/>
+    <col customWidth="1" max="7" min="7" style="7" width="10.5"/>
+    <col customWidth="1" max="28" min="8" style="7" width="9"/>
+    <col customWidth="1" max="16384" min="29" style="7" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" r="1" s="4" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1589,7 +1606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -1621,7 +1638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -1653,7 +1670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
@@ -1685,7 +1702,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
@@ -1717,7 +1734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="7" t="s">
         <v>49</v>
       </c>
@@ -1749,7 +1766,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
         <v>53</v>
       </c>
@@ -1781,7 +1798,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="7" t="s">
         <v>57</v>
       </c>
@@ -1814,43 +1831,46 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="7" customWidth="1"/>
-    <col min="9" max="15" width="9" style="7" customWidth="1"/>
-    <col min="16" max="16" width="20.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9" style="7" customWidth="1"/>
-    <col min="20" max="20" width="11.375" style="7" customWidth="1"/>
-    <col min="21" max="23" width="13.125" style="7" customWidth="1"/>
-    <col min="24" max="24" width="11.125" style="7" customWidth="1"/>
-    <col min="25" max="26" width="9" style="7" customWidth="1"/>
-    <col min="27" max="27" width="11.75" style="7" customWidth="1"/>
-    <col min="28" max="48" width="9" style="7" customWidth="1"/>
-    <col min="49" max="16384" width="9" style="7"/>
+    <col customWidth="1" max="1" min="1" style="7" width="14.375"/>
+    <col customWidth="1" max="2" min="2" style="7" width="9"/>
+    <col customWidth="1" max="3" min="3" style="7" width="17.375"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="12.75"/>
+    <col customWidth="1" max="5" min="5" style="7" width="9.375"/>
+    <col customWidth="1" max="6" min="6" style="7" width="7"/>
+    <col customWidth="1" max="7" min="7" style="7" width="14.125"/>
+    <col customWidth="1" max="8" min="8" style="7" width="13.5"/>
+    <col customWidth="1" max="15" min="9" style="7" width="9"/>
+    <col bestFit="1" customWidth="1" max="16" min="16" style="7" width="20.5"/>
+    <col customWidth="1" max="19" min="17" style="7" width="9"/>
+    <col customWidth="1" max="20" min="20" style="7" width="11.375"/>
+    <col customWidth="1" max="23" min="21" style="7" width="13.125"/>
+    <col customWidth="1" max="24" min="24" style="7" width="11.125"/>
+    <col customWidth="1" max="26" min="25" style="7" width="9"/>
+    <col customWidth="1" max="27" min="27" style="7" width="11.75"/>
+    <col customWidth="1" max="48" min="28" style="7" width="9"/>
+    <col customWidth="1" max="16384" min="49" style="7" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" r="1" s="4" spans="1:28">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1936,7 +1956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28">
       <c r="A2" s="7" t="s">
         <v>80</v>
       </c>
@@ -2022,7 +2042,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28">
       <c r="A3" s="7" t="s">
         <v>103</v>
       </c>
@@ -2108,7 +2128,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28">
       <c r="A4" s="7" t="s">
         <v>115</v>
       </c>
@@ -2194,7 +2214,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28">
       <c r="A5" s="7" t="s">
         <v>122</v>
       </c>
@@ -2280,7 +2300,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28">
       <c r="A6" s="7" t="s">
         <v>127</v>
       </c>
@@ -2366,7 +2386,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28">
       <c r="A7" s="7" t="s">
         <v>132</v>
       </c>
@@ -2452,7 +2472,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28">
       <c r="A8" s="7" t="s">
         <v>140</v>
       </c>
@@ -2538,7 +2558,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28">
       <c r="A9" s="7" t="s">
         <v>145</v>
       </c>
@@ -2624,7 +2644,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28">
       <c r="A10" s="7" t="s">
         <v>150</v>
       </c>
@@ -2710,7 +2730,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28">
       <c r="A11" s="7" t="s">
         <v>155</v>
       </c>
@@ -2796,7 +2816,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28">
       <c r="A12" s="7" t="s">
         <v>162</v>
       </c>
@@ -2882,7 +2902,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28">
       <c r="A13" s="7" t="s">
         <v>169</v>
       </c>
@@ -2968,7 +2988,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28">
       <c r="A14" s="7" t="s">
         <v>174</v>
       </c>
@@ -3054,7 +3074,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28">
       <c r="A15" s="7" t="s">
         <v>179</v>
       </c>
@@ -3140,7 +3160,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28">
       <c r="A16" s="7" t="s">
         <v>185</v>
       </c>
@@ -3226,7 +3246,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28">
       <c r="A17" s="7" t="s">
         <v>191</v>
       </c>
@@ -3312,7 +3332,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28">
       <c r="A18" s="7" t="s">
         <v>198</v>
       </c>
@@ -3399,53 +3419,56 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="7" customWidth="1"/>
-    <col min="9" max="10" width="9" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="7" customWidth="1"/>
-    <col min="14" max="14" width="14.75" style="7" customWidth="1"/>
-    <col min="15" max="15" width="21.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.25" style="7" customWidth="1"/>
-    <col min="17" max="17" width="19.625" style="7" customWidth="1"/>
-    <col min="18" max="19" width="17.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.625" style="7" customWidth="1"/>
-    <col min="21" max="22" width="9" style="7" customWidth="1"/>
-    <col min="23" max="23" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11" style="7" customWidth="1"/>
-    <col min="25" max="25" width="9" style="7" customWidth="1"/>
-    <col min="26" max="26" width="11.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.125" style="7" customWidth="1"/>
-    <col min="28" max="28" width="12.125" style="7" customWidth="1"/>
-    <col min="29" max="30" width="9" style="7" customWidth="1"/>
-    <col min="32" max="48" width="9" style="7" customWidth="1"/>
-    <col min="49" max="16384" width="9" style="7"/>
+    <col customWidth="1" max="1" min="1" style="7" width="16.375"/>
+    <col customWidth="1" max="2" min="2" style="7" width="12.875"/>
+    <col customWidth="1" max="3" min="3" style="7" width="16.625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="12.75"/>
+    <col customWidth="1" max="5" min="5" style="7" width="13.875"/>
+    <col customWidth="1" max="6" min="6" style="7" width="9"/>
+    <col customWidth="1" max="7" min="7" style="7" width="11.125"/>
+    <col customWidth="1" max="8" min="8" style="7" width="13.5"/>
+    <col customWidth="1" max="10" min="9" style="7" width="9"/>
+    <col customWidth="1" max="11" min="11" style="7" width="13.125"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="7" width="20.5"/>
+    <col customWidth="1" max="13" min="13" style="7" width="10.75"/>
+    <col customWidth="1" max="14" min="14" style="7" width="14.75"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" style="7" width="21.625"/>
+    <col customWidth="1" max="16" min="16" style="7" width="12.25"/>
+    <col customWidth="1" max="17" min="17" style="7" width="19.625"/>
+    <col bestFit="1" customWidth="1" max="19" min="18" style="7" width="17.25"/>
+    <col customWidth="1" max="20" min="20" style="7" width="7.625"/>
+    <col customWidth="1" max="22" min="21" style="7" width="9"/>
+    <col bestFit="1" customWidth="1" max="23" min="23" style="7" width="11"/>
+    <col customWidth="1" max="24" min="24" style="7" width="11"/>
+    <col customWidth="1" max="25" min="25" style="7" width="9"/>
+    <col bestFit="1" customWidth="1" max="26" min="26" style="7" width="11.125"/>
+    <col customWidth="1" max="27" min="27" style="7" width="11.125"/>
+    <col customWidth="1" max="28" min="28" style="7" width="12.125"/>
+    <col customWidth="1" max="30" min="29" style="7" width="9"/>
+    <col customWidth="1" max="48" min="32" style="7" width="9"/>
+    <col customWidth="1" max="16384" min="49" style="7" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" r="1" s="4" spans="1:28">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3531,7 +3554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28">
       <c r="A2" s="7" t="s">
         <v>216</v>
       </c>
@@ -3614,7 +3637,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28">
       <c r="A3" s="7" t="s">
         <v>227</v>
       </c>
@@ -3691,7 +3714,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28">
       <c r="A4" s="7" t="s">
         <v>233</v>
       </c>
@@ -3768,7 +3791,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28">
       <c r="A5" s="7" t="s">
         <v>237</v>
       </c>
@@ -3845,7 +3868,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28">
       <c r="A6" s="7" t="s">
         <v>242</v>
       </c>
@@ -3922,7 +3945,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28">
       <c r="A7" s="7" t="s">
         <v>247</v>
       </c>
@@ -4005,7 +4028,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28">
       <c r="A8" s="7" t="s">
         <v>251</v>
       </c>
@@ -4088,7 +4111,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28">
       <c r="A9" s="7" t="s">
         <v>255</v>
       </c>
@@ -4165,7 +4188,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28">
       <c r="A10" s="7" t="s">
         <v>260</v>
       </c>
@@ -4248,7 +4271,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28">
       <c r="A11" s="7" t="s">
         <v>265</v>
       </c>
@@ -4331,7 +4354,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28">
       <c r="A12" s="7" t="s">
         <v>269</v>
       </c>
@@ -4415,50 +4438,53 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y1048576">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="Y2:Y1048576" type="list">
       <formula1>"0-未执行,1-已执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z1048576">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="Z2:Z1048576" type="list">
       <formula1>"0-执行成功,1-执行失败"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576"/>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="AA1:AA1048576"/>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="7" customWidth="1"/>
-    <col min="9" max="17" width="9" style="7" customWidth="1"/>
-    <col min="18" max="18" width="15.75" style="7" customWidth="1"/>
-    <col min="19" max="22" width="9" style="7" customWidth="1"/>
-    <col min="23" max="27" width="13" style="7" customWidth="1"/>
-    <col min="28" max="28" width="9" style="7" customWidth="1"/>
-    <col min="29" max="29" width="12.125" style="7" customWidth="1"/>
-    <col min="30" max="49" width="9" style="7" customWidth="1"/>
-    <col min="50" max="16384" width="9" style="7"/>
+    <col customWidth="1" max="1" min="1" style="7" width="17"/>
+    <col customWidth="1" max="2" min="2" style="7" width="10.875"/>
+    <col customWidth="1" max="3" min="3" style="7" width="12.875"/>
+    <col customWidth="1" max="4" min="4" style="7" width="12.25"/>
+    <col customWidth="1" max="5" min="5" style="7" width="9"/>
+    <col customWidth="1" max="6" min="6" style="7" width="7.375"/>
+    <col customWidth="1" max="7" min="7" style="7" width="10.5"/>
+    <col customWidth="1" max="8" min="8" style="7" width="12.125"/>
+    <col customWidth="1" max="17" min="9" style="7" width="9"/>
+    <col customWidth="1" max="18" min="18" style="7" width="15.75"/>
+    <col customWidth="1" max="22" min="19" style="7" width="9"/>
+    <col customWidth="1" max="27" min="23" style="7" width="13"/>
+    <col customWidth="1" max="28" min="28" style="7" width="9"/>
+    <col customWidth="1" max="29" min="29" style="7" width="12.125"/>
+    <col customWidth="1" max="49" min="30" style="7" width="9"/>
+    <col customWidth="1" max="16384" min="50" style="7" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" r="1" s="4" spans="1:31">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4553,7 +4579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31">
       <c r="A2" s="7" t="s">
         <v>277</v>
       </c>
@@ -4639,18 +4665,18 @@
         <v>18</v>
       </c>
       <c r="AE2" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31">
       <c r="A3" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>278</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
@@ -4668,7 +4694,7 @@
         <v>106</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>108</v>
@@ -4686,7 +4712,7 @@
         <v>106</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>221</v>
@@ -4713,10 +4739,10 @@
         <v>219</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>283</v>
@@ -4725,24 +4751,24 @@
         <v>17</v>
       </c>
       <c r="AC3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AD3" t="s">
         <v>18</v>
       </c>
       <c r="AE3" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:31">
       <c r="A4" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>278</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>15</v>
@@ -4760,7 +4786,7 @@
         <v>106</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>108</v>
@@ -4778,7 +4804,7 @@
         <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>221</v>
@@ -4805,7 +4831,7 @@
         <v>188</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA4" s="7" t="s">
         <v>283</v>
@@ -4814,24 +4840,24 @@
         <v>17</v>
       </c>
       <c r="AC4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AD4" t="s">
         <v>18</v>
       </c>
       <c r="AE4" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:31">
       <c r="A5" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>278</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>15</v>
@@ -4849,7 +4875,7 @@
         <v>106</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>108</v>
@@ -4867,7 +4893,7 @@
         <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>221</v>
@@ -4894,7 +4920,7 @@
         <v>188</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AA5" s="7" t="s">
         <v>283</v>
@@ -4903,24 +4929,24 @@
         <v>17</v>
       </c>
       <c r="AC5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AD5" t="s">
         <v>18</v>
       </c>
       <c r="AE5" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:31">
       <c r="A6" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>278</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>15</v>
@@ -4938,7 +4964,7 @@
         <v>229</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>86</v>
@@ -4977,7 +5003,7 @@
         <v>188</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA6" s="7" t="s">
         <v>283</v>
@@ -4986,24 +5012,24 @@
         <v>17</v>
       </c>
       <c r="AC6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AD6" t="s">
         <v>18</v>
       </c>
       <c r="AE6" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:31">
       <c r="A7" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>278</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>15</v>
@@ -5021,7 +5047,7 @@
         <v>229</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>86</v>
@@ -5060,7 +5086,7 @@
         <v>188</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA7" s="7" t="s">
         <v>283</v>
@@ -5069,24 +5095,24 @@
         <v>17</v>
       </c>
       <c r="AC7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AD7" t="s">
         <v>18</v>
       </c>
       <c r="AE7" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:31">
       <c r="A8" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>278</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>15</v>
@@ -5104,7 +5130,7 @@
         <v>229</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>86</v>
@@ -5143,7 +5169,7 @@
         <v>188</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA8" s="7" t="s">
         <v>283</v>
@@ -5152,23 +5178,105 @@
         <v>17</v>
       </c>
       <c r="AC8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AD8" t="s">
         <v>18</v>
       </c>
       <c r="AE8" t="s">
-        <v>226</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AB2:AC8">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="AB2:AC8" type="list">
       <formula1>"0-未执行,1-已执行"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>